--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607F0EFF-1C0F-4B99-8474-6F9A70B5B660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9ACA0-5CB8-4C76-ADC4-B2667DFF842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -120,6 +120,39 @@
   </si>
   <si>
     <t>Finir le schéma des actions/fonctions</t>
+  </si>
+  <si>
+    <t>Mettre en place le docker avec le bon port</t>
+  </si>
+  <si>
+    <t>J'essaie de me connecter à mysql</t>
+  </si>
+  <si>
+    <t>Je continue d'essayer de me connecter avec mysql, je vais essayer avec mysql2</t>
+  </si>
+  <si>
+    <t>Connexion faites, je me renseigne sur OpenSSL</t>
+  </si>
+  <si>
+    <t>J'essaie de récupérer des données dans la base de donnée</t>
+  </si>
+  <si>
+    <t>Je crée la route login, j'essayais avec une route GET et non POST</t>
+  </si>
+  <si>
+    <t>Je crée la fonction de hachage du mot de passe dans la route login</t>
+  </si>
+  <si>
+    <t>J'essaie de récupérer la valeur du JSON avec le POST</t>
+  </si>
+  <si>
+    <t>J'ai un problème avec la connexion à la db</t>
+  </si>
+  <si>
+    <t>Toujours le même problème avec la connexion à la db</t>
+  </si>
+  <si>
+    <t>Toujours le même problème avec la connexion à la db, j'ai commencé à utiliser les tokens jwt</t>
   </si>
 </sst>
 </file>
@@ -226,10 +259,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,11 +279,58 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -304,50 +380,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -362,7 +394,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -370,14 +402,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -573,12 +605,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
@@ -592,23 +624,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
@@ -635,9 +667,9 @@
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1979166666666666</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -645,13 +677,13 @@
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="22">
         <f ca="1">TODAY()</f>
         <v>45401</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -671,7 +703,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
       </c>
@@ -690,7 +722,7 @@
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
       </c>
@@ -709,7 +741,7 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
       </c>
@@ -728,7 +760,7 @@
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
       </c>
@@ -747,7 +779,7 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
       </c>
@@ -766,7 +798,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
       </c>
@@ -785,7 +817,7 @@
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
       </c>
@@ -804,7 +836,7 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
       </c>
@@ -823,130 +855,216 @@
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>45401</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="str">
+      <c r="A15" s="13">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="str">
+      <c r="A16" s="13">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="str">
+      <c r="A17" s="13">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="str">
+      <c r="A18" s="13">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="str">
+      <c r="A19" s="13">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="str">
+      <c r="A20" s="13">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="str">
+      <c r="A21" s="13">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="str">
+      <c r="A22" s="13">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="str">
+      <c r="A23" s="13">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="str">
+      <c r="A24" s="13">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="9">
+        <v>45401</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="str">
+      <c r="A25" s="13" t="str">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -957,7 +1075,7 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="str">
+      <c r="A26" s="13" t="str">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -968,7 +1086,7 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="str">
+      <c r="A27" s="13" t="str">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -979,7 +1097,7 @@
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="str">
+      <c r="A28" s="13" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -990,7 +1108,7 @@
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="str">
+      <c r="A29" s="13" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1001,7 +1119,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="str">
+      <c r="A30" s="13" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1012,7 +1130,7 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="str">
+      <c r="A31" s="13" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1023,7 +1141,7 @@
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="str">
+      <c r="A32" s="13" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1034,7 +1152,7 @@
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="str">
+      <c r="A33" s="13" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1045,7 +1163,7 @@
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="str">
+      <c r="A34" s="13" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1056,7 +1174,7 @@
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="str">
+      <c r="A35" s="13" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1067,7 +1185,7 @@
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="str">
+      <c r="A36" s="13" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1078,7 +1196,7 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="str">
+      <c r="A37" s="13" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1089,7 +1207,7 @@
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="str">
+      <c r="A38" s="13" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1100,7 +1218,7 @@
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="str">
+      <c r="A39" s="13" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1111,7 +1229,7 @@
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="str">
+      <c r="A40" s="13" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1122,7 +1240,7 @@
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="str">
+      <c r="A41" s="13" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1133,7 +1251,7 @@
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="str">
+      <c r="A42" s="13" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1144,7 +1262,7 @@
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="str">
+      <c r="A43" s="13" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1155,7 +1273,7 @@
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="str">
+      <c r="A44" s="13" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1166,7 +1284,7 @@
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="str">
+      <c r="A45" s="13" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1177,7 +1295,7 @@
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="str">
+      <c r="A46" s="13" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1188,7 +1306,7 @@
       <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="str">
+      <c r="A47" s="13" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1199,7 +1317,7 @@
       <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="str">
+      <c r="A48" s="13" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1210,7 +1328,7 @@
       <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="str">
+      <c r="A49" s="13" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1221,7 +1339,7 @@
       <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="str">
+      <c r="A50" s="13" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1232,7 +1350,7 @@
       <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="str">
+      <c r="A51" s="13" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1243,7 +1361,7 @@
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="str">
+      <c r="A52" s="13" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1254,7 +1372,7 @@
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="str">
+      <c r="A53" s="13" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1265,7 +1383,7 @@
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="str">
+      <c r="A54" s="13" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1276,7 +1394,7 @@
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="str">
+      <c r="A55" s="13" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1287,7 +1405,7 @@
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="str">
+      <c r="A56" s="13" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1298,7 +1416,7 @@
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="str">
+      <c r="A57" s="13" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1309,7 +1427,7 @@
       <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="str">
+      <c r="A58" s="13" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1320,7 +1438,7 @@
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="str">
+      <c r="A59" s="13" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1331,7 +1449,7 @@
       <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="str">
+      <c r="A60" s="13" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1342,7 +1460,7 @@
       <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="str">
+      <c r="A61" s="13" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1353,7 +1471,7 @@
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="str">
+      <c r="A62" s="13" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1364,7 +1482,7 @@
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="str">
+      <c r="A63" s="13" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1375,7 +1493,7 @@
       <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="str">
+      <c r="A64" s="13" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1386,7 +1504,7 @@
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="str">
+      <c r="A65" s="13" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1397,7 +1515,7 @@
       <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="str">
+      <c r="A66" s="13" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1408,7 +1526,7 @@
       <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="str">
+      <c r="A67" s="13" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1419,7 +1537,7 @@
       <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="str">
+      <c r="A68" s="13" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1430,7 +1548,7 @@
       <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="str">
+      <c r="A69" s="13" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1441,7 +1559,7 @@
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="str">
+      <c r="A70" s="13" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1452,7 +1570,7 @@
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="str">
+      <c r="A71" s="13" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1463,7 +1581,7 @@
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="str">
+      <c r="A72" s="13" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1474,7 +1592,7 @@
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="str">
+      <c r="A73" s="13" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1485,7 +1603,7 @@
       <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="str">
+      <c r="A74" s="13" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1496,7 +1614,7 @@
       <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="str">
+      <c r="A75" s="13" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1507,7 +1625,7 @@
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="str">
+      <c r="A76" s="13" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1518,7 +1636,7 @@
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="str">
+      <c r="A77" s="13" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1529,7 +1647,7 @@
       <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="str">
+      <c r="A78" s="13" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1540,7 +1658,7 @@
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="str">
+      <c r="A79" s="13" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1551,7 +1669,7 @@
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="str">
+      <c r="A80" s="13" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1562,7 +1680,7 @@
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="str">
+      <c r="A81" s="13" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1573,7 +1691,7 @@
       <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="str">
+      <c r="A82" s="13" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1584,7 +1702,7 @@
       <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="str">
+      <c r="A83" s="13" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1595,7 +1713,7 @@
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="str">
+      <c r="A84" s="13" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1606,7 +1724,7 @@
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="str">
+      <c r="A85" s="13" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1617,7 +1735,7 @@
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="str">
+      <c r="A86" s="13" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1628,7 +1746,7 @@
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="str">
+      <c r="A87" s="13" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1639,7 +1757,7 @@
       <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="str">
+      <c r="A88" s="13" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1650,7 +1768,7 @@
       <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="str">
+      <c r="A89" s="13" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1661,7 +1779,7 @@
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="str">
+      <c r="A90" s="13" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1672,7 +1790,7 @@
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="str">
+      <c r="A91" s="13" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1683,7 +1801,7 @@
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="str">
+      <c r="A92" s="13" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1694,7 +1812,7 @@
       <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="str">
+      <c r="A93" s="13" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1705,7 +1823,7 @@
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="str">
+      <c r="A94" s="13" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1716,7 +1834,7 @@
       <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="str">
+      <c r="A95" s="13" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1727,7 +1845,7 @@
       <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="str">
+      <c r="A96" s="13" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1738,7 +1856,7 @@
       <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="str">
+      <c r="A97" s="13" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1749,7 +1867,7 @@
       <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="str">
+      <c r="A98" s="13" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1760,7 +1878,7 @@
       <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="str">
+      <c r="A99" s="13" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1771,7 +1889,7 @@
       <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="str">
+      <c r="A100" s="13" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1782,7 +1900,7 @@
       <c r="F100" s="11"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="str">
+      <c r="A101" s="13" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1793,7 +1911,7 @@
       <c r="F101" s="11"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="str">
+      <c r="A102" s="13" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1804,7 +1922,7 @@
       <c r="F102" s="11"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="str">
+      <c r="A103" s="13" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1815,7 +1933,7 @@
       <c r="F103" s="11"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="str">
+      <c r="A104" s="13" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1826,7 +1944,7 @@
       <c r="F104" s="11"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="str">
+      <c r="A105" s="13" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1837,7 +1955,7 @@
       <c r="F105" s="11"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="str">
+      <c r="A106" s="13" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1848,7 +1966,7 @@
       <c r="F106" s="11"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="str">
+      <c r="A107" s="13" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1859,7 +1977,7 @@
       <c r="F107" s="11"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="str">
+      <c r="A108" s="13" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1870,7 +1988,7 @@
       <c r="F108" s="11"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="str">
+      <c r="A109" s="13" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1881,7 +1999,7 @@
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="str">
+      <c r="A110" s="13" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1892,7 +2010,7 @@
       <c r="F110" s="11"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="str">
+      <c r="A111" s="13" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1903,7 +2021,7 @@
       <c r="F111" s="11"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="str">
+      <c r="A112" s="13" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1914,7 +2032,7 @@
       <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="str">
+      <c r="A113" s="13" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1925,7 +2043,7 @@
       <c r="F113" s="11"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="str">
+      <c r="A114" s="13" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1936,7 +2054,7 @@
       <c r="F114" s="11"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="str">
+      <c r="A115" s="13" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1947,7 +2065,7 @@
       <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="str">
+      <c r="A116" s="13" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1958,7 +2076,7 @@
       <c r="F116" s="11"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="str">
+      <c r="A117" s="13" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1969,7 +2087,7 @@
       <c r="F117" s="11"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="str">
+      <c r="A118" s="13" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1980,7 +2098,7 @@
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="str">
+      <c r="A119" s="13" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -1991,7 +2109,7 @@
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="str">
+      <c r="A120" s="13" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2002,7 +2120,7 @@
       <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="str">
+      <c r="A121" s="13" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2013,7 +2131,7 @@
       <c r="F121" s="11"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="str">
+      <c r="A122" s="13" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2024,7 +2142,7 @@
       <c r="F122" s="11"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="str">
+      <c r="A123" s="13" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2035,7 +2153,7 @@
       <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="str">
+      <c r="A124" s="13" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2046,7 +2164,7 @@
       <c r="F124" s="11"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="str">
+      <c r="A125" s="13" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2057,7 +2175,7 @@
       <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="str">
+      <c r="A126" s="13" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2068,7 +2186,7 @@
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="str">
+      <c r="A127" s="13" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2079,7 +2197,7 @@
       <c r="F127" s="11"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="str">
+      <c r="A128" s="13" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2090,7 +2208,7 @@
       <c r="F128" s="11"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="str">
+      <c r="A129" s="13" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2101,7 +2219,7 @@
       <c r="F129" s="11"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="str">
+      <c r="A130" s="13" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2112,7 +2230,7 @@
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="str">
+      <c r="A131" s="13" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2123,7 +2241,7 @@
       <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="str">
+      <c r="A132" s="13" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2134,7 +2252,7 @@
       <c r="F132" s="11"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="str">
+      <c r="A133" s="13" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2145,7 +2263,7 @@
       <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="str">
+      <c r="A134" s="13" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2156,7 +2274,7 @@
       <c r="F134" s="11"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="str">
+      <c r="A135" s="13" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2167,7 +2285,7 @@
       <c r="F135" s="11"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="str">
+      <c r="A136" s="13" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2178,7 +2296,7 @@
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="str">
+      <c r="A137" s="13" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2189,7 +2307,7 @@
       <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="str">
+      <c r="A138" s="13" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2200,7 +2318,7 @@
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="str">
+      <c r="A139" s="13" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2211,7 +2329,7 @@
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="str">
+      <c r="A140" s="13" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2222,7 +2340,7 @@
       <c r="F140" s="11"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="str">
+      <c r="A141" s="13" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2233,7 +2351,7 @@
       <c r="F141" s="11"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="str">
+      <c r="A142" s="13" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2244,7 +2362,7 @@
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="str">
+      <c r="A143" s="13" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2255,7 +2373,7 @@
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="str">
+      <c r="A144" s="13" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2266,7 +2384,7 @@
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="str">
+      <c r="A145" s="13" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2277,7 +2395,7 @@
       <c r="F145" s="11"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="14" t="str">
+      <c r="A146" s="13" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2288,7 +2406,7 @@
       <c r="F146" s="11"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="str">
+      <c r="A147" s="13" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2299,7 +2417,7 @@
       <c r="F147" s="11"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="str">
+      <c r="A148" s="13" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2310,7 +2428,7 @@
       <c r="F148" s="11"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="str">
+      <c r="A149" s="13" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2321,7 +2439,7 @@
       <c r="F149" s="11"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="str">
+      <c r="A150" s="13" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2332,7 +2450,7 @@
       <c r="F150" s="11"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="14" t="str">
+      <c r="A151" s="13" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2343,7 +2461,7 @@
       <c r="F151" s="11"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="str">
+      <c r="A152" s="13" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2354,7 +2472,7 @@
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="str">
+      <c r="A153" s="13" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2365,7 +2483,7 @@
       <c r="F153" s="11"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="str">
+      <c r="A154" s="13" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2376,7 +2494,7 @@
       <c r="F154" s="11"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="str">
+      <c r="A155" s="13" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2387,7 +2505,7 @@
       <c r="F155" s="11"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="str">
+      <c r="A156" s="13" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2398,7 +2516,7 @@
       <c r="F156" s="11"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="str">
+      <c r="A157" s="13" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2409,7 +2527,7 @@
       <c r="F157" s="11"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="14" t="str">
+      <c r="A158" s="13" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2420,7 +2538,7 @@
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="str">
+      <c r="A159" s="13" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2431,7 +2549,7 @@
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="str">
+      <c r="A160" s="13" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2442,7 +2560,7 @@
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="14" t="str">
+      <c r="A161" s="13" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2453,7 +2571,7 @@
       <c r="F161" s="11"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="14" t="str">
+      <c r="A162" s="13" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2464,7 +2582,7 @@
       <c r="F162" s="11"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="14" t="str">
+      <c r="A163" s="13" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2475,7 +2593,7 @@
       <c r="F163" s="11"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="14" t="str">
+      <c r="A164" s="13" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2486,7 +2604,7 @@
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="14" t="str">
+      <c r="A165" s="13" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2497,7 +2615,7 @@
       <c r="F165" s="11"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="14" t="str">
+      <c r="A166" s="13" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2508,7 +2626,7 @@
       <c r="F166" s="11"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="14" t="str">
+      <c r="A167" s="13" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2519,7 +2637,7 @@
       <c r="F167" s="11"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="14" t="str">
+      <c r="A168" s="13" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2530,7 +2648,7 @@
       <c r="F168" s="11"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="14" t="str">
+      <c r="A169" s="13" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2541,7 +2659,7 @@
       <c r="F169" s="11"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="14" t="str">
+      <c r="A170" s="13" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2552,7 +2670,7 @@
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="14" t="str">
+      <c r="A171" s="13" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2563,7 +2681,7 @@
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="str">
+      <c r="A172" s="13" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2574,7 +2692,7 @@
       <c r="F172" s="11"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="14" t="str">
+      <c r="A173" s="13" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2585,7 +2703,7 @@
       <c r="F173" s="11"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="14" t="str">
+      <c r="A174" s="13" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2596,7 +2714,7 @@
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="14" t="str">
+      <c r="A175" s="13" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2607,7 +2725,7 @@
       <c r="F175" s="11"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="14" t="str">
+      <c r="A176" s="13" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2618,7 +2736,7 @@
       <c r="F176" s="11"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="14" t="str">
+      <c r="A177" s="13" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2629,7 +2747,7 @@
       <c r="F177" s="11"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="14" t="str">
+      <c r="A178" s="13" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2640,7 +2758,7 @@
       <c r="F178" s="11"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="14" t="str">
+      <c r="A179" s="13" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2651,7 +2769,7 @@
       <c r="F179" s="11"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="14" t="str">
+      <c r="A180" s="13" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2662,7 +2780,7 @@
       <c r="F180" s="11"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="14" t="str">
+      <c r="A181" s="13" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2673,7 +2791,7 @@
       <c r="F181" s="11"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="14" t="str">
+      <c r="A182" s="13" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2684,7 +2802,7 @@
       <c r="F182" s="11"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="14" t="str">
+      <c r="A183" s="13" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2695,7 +2813,7 @@
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="14" t="str">
+      <c r="A184" s="13" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2706,7 +2824,7 @@
       <c r="F184" s="11"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="14" t="str">
+      <c r="A185" s="13" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2717,7 +2835,7 @@
       <c r="F185" s="11"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="14" t="str">
+      <c r="A186" s="13" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2728,7 +2846,7 @@
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="14" t="str">
+      <c r="A187" s="13" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2739,7 +2857,7 @@
       <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="14" t="str">
+      <c r="A188" s="13" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2750,7 +2868,7 @@
       <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="14" t="str">
+      <c r="A189" s="13" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2761,7 +2879,7 @@
       <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="14" t="str">
+      <c r="A190" s="13" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2772,7 +2890,7 @@
       <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="14" t="str">
+      <c r="A191" s="13" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2783,7 +2901,7 @@
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="14" t="str">
+      <c r="A192" s="13" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2794,7 +2912,7 @@
       <c r="F192" s="11"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="14" t="str">
+      <c r="A193" s="13" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2805,7 +2923,7 @@
       <c r="F193" s="11"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="14" t="str">
+      <c r="A194" s="13" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2816,7 +2934,7 @@
       <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="14" t="str">
+      <c r="A195" s="13" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2827,7 +2945,7 @@
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="14" t="str">
+      <c r="A196" s="13" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2838,7 +2956,7 @@
       <c r="F196" s="11"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="14" t="str">
+      <c r="A197" s="13" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2849,7 +2967,7 @@
       <c r="F197" s="11"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="14" t="str">
+      <c r="A198" s="13" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2860,7 +2978,7 @@
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="14" t="str">
+      <c r="A199" s="13" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2871,7 +2989,7 @@
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="14" t="str">
+      <c r="A200" s="13" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2882,7 +3000,7 @@
       <c r="F200" s="11"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="14" t="str">
+      <c r="A201" s="13" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2893,7 +3011,7 @@
       <c r="F201" s="11"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="14" t="str">
+      <c r="A202" s="13" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2904,7 +3022,7 @@
       <c r="F202" s="11"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="14" t="str">
+      <c r="A203" s="13" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2915,7 +3033,7 @@
       <c r="F203" s="11"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="14" t="str">
+      <c r="A204" s="13" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2926,7 +3044,7 @@
       <c r="F204" s="11"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="14" t="str">
+      <c r="A205" s="13" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2937,7 +3055,7 @@
       <c r="F205" s="11"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="14" t="str">
+      <c r="A206" s="13" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2948,7 +3066,7 @@
       <c r="F206" s="11"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="14" t="str">
+      <c r="A207" s="13" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2959,7 +3077,7 @@
       <c r="F207" s="11"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="14" t="str">
+      <c r="A208" s="13" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2970,7 +3088,7 @@
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="14" t="str">
+      <c r="A209" s="13" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2981,7 +3099,7 @@
       <c r="F209" s="11"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="14" t="str">
+      <c r="A210" s="13" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -2992,7 +3110,7 @@
       <c r="F210" s="11"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="14" t="str">
+      <c r="A211" s="13" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3003,7 +3121,7 @@
       <c r="F211" s="11"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="14" t="str">
+      <c r="A212" s="13" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3014,7 +3132,7 @@
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="14" t="str">
+      <c r="A213" s="13" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3025,7 +3143,7 @@
       <c r="F213" s="11"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="14" t="str">
+      <c r="A214" s="13" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3036,7 +3154,7 @@
       <c r="F214" s="11"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="14" t="str">
+      <c r="A215" s="13" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3047,7 +3165,7 @@
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="14" t="str">
+      <c r="A216" s="13" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3058,7 +3176,7 @@
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="14" t="str">
+      <c r="A217" s="13" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3069,7 +3187,7 @@
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="14" t="str">
+      <c r="A218" s="13" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3080,7 +3198,7 @@
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="14" t="str">
+      <c r="A219" s="13" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3091,7 +3209,7 @@
       <c r="F219" s="11"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="14" t="str">
+      <c r="A220" s="13" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3102,7 +3220,7 @@
       <c r="F220" s="11"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="14" t="str">
+      <c r="A221" s="13" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3113,7 +3231,7 @@
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="14" t="str">
+      <c r="A222" s="13" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3124,7 +3242,7 @@
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="14" t="str">
+      <c r="A223" s="13" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3135,7 +3253,7 @@
       <c r="F223" s="11"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="14" t="str">
+      <c r="A224" s="13" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3146,7 +3264,7 @@
       <c r="F224" s="11"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="14" t="str">
+      <c r="A225" s="13" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3157,7 +3275,7 @@
       <c r="F225" s="11"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="14" t="str">
+      <c r="A226" s="13" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3168,7 +3286,7 @@
       <c r="F226" s="11"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="14" t="str">
+      <c r="A227" s="13" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3179,7 +3297,7 @@
       <c r="F227" s="11"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="14" t="str">
+      <c r="A228" s="13" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3190,7 +3308,7 @@
       <c r="F228" s="11"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="14" t="str">
+      <c r="A229" s="13" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3201,7 +3319,7 @@
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="14" t="str">
+      <c r="A230" s="13" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3212,7 +3330,7 @@
       <c r="F230" s="11"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="14" t="str">
+      <c r="A231" s="13" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3223,7 +3341,7 @@
       <c r="F231" s="11"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="14" t="str">
+      <c r="A232" s="13" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3234,7 +3352,7 @@
       <c r="F232" s="11"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="14" t="str">
+      <c r="A233" s="13" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3245,7 +3363,7 @@
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="14" t="str">
+      <c r="A234" s="13" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3256,7 +3374,7 @@
       <c r="F234" s="11"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="14" t="str">
+      <c r="A235" s="13" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3267,7 +3385,7 @@
       <c r="F235" s="11"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="14" t="str">
+      <c r="A236" s="13" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3278,7 +3396,7 @@
       <c r="F236" s="11"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="14" t="str">
+      <c r="A237" s="13" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3289,7 +3407,7 @@
       <c r="F237" s="11"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="14" t="str">
+      <c r="A238" s="13" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3300,7 +3418,7 @@
       <c r="F238" s="11"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="14" t="str">
+      <c r="A239" s="13" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3311,7 +3429,7 @@
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="14" t="str">
+      <c r="A240" s="13" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3322,7 +3440,7 @@
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="14" t="str">
+      <c r="A241" s="13" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3333,7 +3451,7 @@
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="14" t="str">
+      <c r="A242" s="13" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3344,7 +3462,7 @@
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="14" t="str">
+      <c r="A243" s="13" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3355,7 +3473,7 @@
       <c r="F243" s="11"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="14" t="str">
+      <c r="A244" s="13" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3366,7 +3484,7 @@
       <c r="F244" s="11"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="14" t="str">
+      <c r="A245" s="13" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3377,7 +3495,7 @@
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="14" t="str">
+      <c r="A246" s="13" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3388,7 +3506,7 @@
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="14" t="str">
+      <c r="A247" s="13" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3399,7 +3517,7 @@
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="14" t="str">
+      <c r="A248" s="13" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3410,7 +3528,7 @@
       <c r="F248" s="11"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="14" t="str">
+      <c r="A249" s="13" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3421,7 +3539,7 @@
       <c r="F249" s="11"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="14" t="str">
+      <c r="A250" s="13" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3432,7 +3550,7 @@
       <c r="F250" s="11"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="14" t="str">
+      <c r="A251" s="13" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3443,7 +3561,7 @@
       <c r="F251" s="11"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="14" t="str">
+      <c r="A252" s="13" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3454,7 +3572,7 @@
       <c r="F252" s="11"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="14" t="str">
+      <c r="A253" s="13" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3465,7 +3583,7 @@
       <c r="F253" s="11"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="14" t="str">
+      <c r="A254" s="13" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3476,7 +3594,7 @@
       <c r="F254" s="11"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="14" t="str">
+      <c r="A255" s="13" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3487,7 +3605,7 @@
       <c r="F255" s="11"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="14" t="str">
+      <c r="A256" s="13" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3498,7 +3616,7 @@
       <c r="F256" s="11"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="14" t="str">
+      <c r="A257" s="13" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3509,7 +3627,7 @@
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="14" t="str">
+      <c r="A258" s="13" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3520,7 +3638,7 @@
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="14" t="str">
+      <c r="A259" s="13" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3531,7 +3649,7 @@
       <c r="F259" s="11"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="14" t="str">
+      <c r="A260" s="13" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3542,7 +3660,7 @@
       <c r="F260" s="11"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="14" t="str">
+      <c r="A261" s="13" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3553,7 +3671,7 @@
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="14" t="str">
+      <c r="A262" s="13" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3564,7 +3682,7 @@
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="14" t="str">
+      <c r="A263" s="13" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3575,7 +3693,7 @@
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="14" t="str">
+      <c r="A264" s="13" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3586,7 +3704,7 @@
       <c r="F264" s="11"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="14" t="str">
+      <c r="A265" s="13" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3597,7 +3715,7 @@
       <c r="F265" s="11"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="14" t="str">
+      <c r="A266" s="13" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3608,7 +3726,7 @@
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="14" t="str">
+      <c r="A267" s="13" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3619,7 +3737,7 @@
       <c r="F267" s="11"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="14" t="str">
+      <c r="A268" s="13" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3630,7 +3748,7 @@
       <c r="F268" s="11"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="14" t="str">
+      <c r="A269" s="13" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3641,7 +3759,7 @@
       <c r="F269" s="11"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="14" t="str">
+      <c r="A270" s="13" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3652,7 +3770,7 @@
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="14" t="str">
+      <c r="A271" s="13" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3663,7 +3781,7 @@
       <c r="F271" s="11"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="14" t="str">
+      <c r="A272" s="13" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3674,7 +3792,7 @@
       <c r="F272" s="11"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="14" t="str">
+      <c r="A273" s="13" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3685,7 +3803,7 @@
       <c r="F273" s="11"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="14" t="str">
+      <c r="A274" s="13" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3696,7 +3814,7 @@
       <c r="F274" s="11"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="14" t="str">
+      <c r="A275" s="13" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3707,7 +3825,7 @@
       <c r="F275" s="11"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="14" t="str">
+      <c r="A276" s="13" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3718,7 +3836,7 @@
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="14" t="str">
+      <c r="A277" s="13" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3729,7 +3847,7 @@
       <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="14" t="str">
+      <c r="A278" s="13" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3740,7 +3858,7 @@
       <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="14" t="str">
+      <c r="A279" s="13" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3751,7 +3869,7 @@
       <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="14" t="str">
+      <c r="A280" s="13" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3762,7 +3880,7 @@
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="14" t="str">
+      <c r="A281" s="13" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3773,7 +3891,7 @@
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="14" t="str">
+      <c r="A282" s="13" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3784,7 +3902,7 @@
       <c r="F282" s="11"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="14" t="str">
+      <c r="A283" s="13" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3795,7 +3913,7 @@
       <c r="F283" s="11"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="14" t="str">
+      <c r="A284" s="13" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3806,7 +3924,7 @@
       <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="14" t="str">
+      <c r="A285" s="13" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3817,7 +3935,7 @@
       <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="14" t="str">
+      <c r="A286" s="13" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3828,7 +3946,7 @@
       <c r="F286" s="11"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="14" t="str">
+      <c r="A287" s="13" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3839,7 +3957,7 @@
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="14" t="str">
+      <c r="A288" s="13" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3850,7 +3968,7 @@
       <c r="F288" s="11"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="14" t="str">
+      <c r="A289" s="13" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3861,7 +3979,7 @@
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="14" t="str">
+      <c r="A290" s="13" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3872,7 +3990,7 @@
       <c r="F290" s="11"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="14" t="str">
+      <c r="A291" s="13" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3883,7 +4001,7 @@
       <c r="F291" s="11"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="14" t="str">
+      <c r="A292" s="13" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3894,7 +4012,7 @@
       <c r="F292" s="11"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="14" t="str">
+      <c r="A293" s="13" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3905,7 +4023,7 @@
       <c r="F293" s="11"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="14" t="str">
+      <c r="A294" s="13" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3916,7 +4034,7 @@
       <c r="F294" s="11"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="14" t="str">
+      <c r="A295" s="13" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3927,7 +4045,7 @@
       <c r="F295" s="11"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="14" t="str">
+      <c r="A296" s="13" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3938,7 +4056,7 @@
       <c r="F296" s="11"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="14" t="str">
+      <c r="A297" s="13" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3949,7 +4067,7 @@
       <c r="F297" s="11"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="14" t="str">
+      <c r="A298" s="13" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3960,7 +4078,7 @@
       <c r="F298" s="11"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="14" t="str">
+      <c r="A299" s="13" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3971,7 +4089,7 @@
       <c r="F299" s="11"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="14" t="str">
+      <c r="A300" s="13" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3982,7 +4100,7 @@
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="14" t="str">
+      <c r="A301" s="13" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -3993,7 +4111,7 @@
       <c r="F301" s="11"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="14" t="str">
+      <c r="A302" s="13" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4004,7 +4122,7 @@
       <c r="F302" s="11"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="14" t="str">
+      <c r="A303" s="13" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4015,7 +4133,7 @@
       <c r="F303" s="11"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="14" t="str">
+      <c r="A304" s="13" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4026,7 +4144,7 @@
       <c r="F304" s="11"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="14" t="str">
+      <c r="A305" s="13" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4037,7 +4155,7 @@
       <c r="F305" s="11"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="14" t="str">
+      <c r="A306" s="13" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4048,7 +4166,7 @@
       <c r="F306" s="11"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="14" t="str">
+      <c r="A307" s="13" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4059,7 +4177,7 @@
       <c r="F307" s="11"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="14" t="str">
+      <c r="A308" s="13" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4070,7 +4188,7 @@
       <c r="F308" s="11"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="14" t="str">
+      <c r="A309" s="13" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4081,7 +4199,7 @@
       <c r="F309" s="11"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="14" t="str">
+      <c r="A310" s="13" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4092,7 +4210,7 @@
       <c r="F310" s="11"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="14" t="str">
+      <c r="A311" s="13" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4103,7 +4221,7 @@
       <c r="F311" s="11"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="14" t="str">
+      <c r="A312" s="13" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4114,7 +4232,7 @@
       <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="14" t="str">
+      <c r="A313" s="13" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4125,7 +4243,7 @@
       <c r="F313" s="11"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="14" t="str">
+      <c r="A314" s="13" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4136,7 +4254,7 @@
       <c r="F314" s="11"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="14" t="str">
+      <c r="A315" s="13" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4147,7 +4265,7 @@
       <c r="F315" s="11"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="14" t="str">
+      <c r="A316" s="13" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4158,7 +4276,7 @@
       <c r="F316" s="11"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="14" t="str">
+      <c r="A317" s="13" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4169,7 +4287,7 @@
       <c r="F317" s="11"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="14" t="str">
+      <c r="A318" s="13" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4180,7 +4298,7 @@
       <c r="F318" s="11"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="14" t="str">
+      <c r="A319" s="13" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4191,7 +4309,7 @@
       <c r="F319" s="11"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="14" t="str">
+      <c r="A320" s="13" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4202,7 +4320,7 @@
       <c r="F320" s="11"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="14" t="str">
+      <c r="A321" s="13" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4213,7 +4331,7 @@
       <c r="F321" s="11"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="14" t="str">
+      <c r="A322" s="13" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4224,7 +4342,7 @@
       <c r="F322" s="11"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="14" t="str">
+      <c r="A323" s="13" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4235,7 +4353,7 @@
       <c r="F323" s="11"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="14" t="str">
+      <c r="A324" s="13" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4246,7 +4364,7 @@
       <c r="F324" s="11"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="14" t="str">
+      <c r="A325" s="13" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4257,7 +4375,7 @@
       <c r="F325" s="11"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="14" t="str">
+      <c r="A326" s="13" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4268,7 +4386,7 @@
       <c r="F326" s="11"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="14" t="str">
+      <c r="A327" s="13" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4279,7 +4397,7 @@
       <c r="F327" s="11"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="14" t="str">
+      <c r="A328" s="13" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4290,7 +4408,7 @@
       <c r="F328" s="11"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="14" t="str">
+      <c r="A329" s="13" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4301,7 +4419,7 @@
       <c r="F329" s="11"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="14" t="str">
+      <c r="A330" s="13" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4312,7 +4430,7 @@
       <c r="F330" s="11"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="14" t="str">
+      <c r="A331" s="13" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4323,7 +4441,7 @@
       <c r="F331" s="11"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="14" t="str">
+      <c r="A332" s="13" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4334,7 +4452,7 @@
       <c r="F332" s="11"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="14" t="str">
+      <c r="A333" s="13" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4345,7 +4463,7 @@
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="14" t="str">
+      <c r="A334" s="13" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4356,7 +4474,7 @@
       <c r="F334" s="11"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="14" t="str">
+      <c r="A335" s="13" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4367,7 +4485,7 @@
       <c r="F335" s="11"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="14" t="str">
+      <c r="A336" s="13" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4378,7 +4496,7 @@
       <c r="F336" s="11"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="14" t="str">
+      <c r="A337" s="13" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4389,7 +4507,7 @@
       <c r="F337" s="11"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="14" t="str">
+      <c r="A338" s="13" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4400,7 +4518,7 @@
       <c r="F338" s="11"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="14" t="str">
+      <c r="A339" s="13" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4411,7 +4529,7 @@
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="14" t="str">
+      <c r="A340" s="13" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4422,7 +4540,7 @@
       <c r="F340" s="11"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="14" t="str">
+      <c r="A341" s="13" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4433,7 +4551,7 @@
       <c r="F341" s="11"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="14" t="str">
+      <c r="A342" s="13" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4444,7 +4562,7 @@
       <c r="F342" s="11"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="14" t="str">
+      <c r="A343" s="13" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4455,7 +4573,7 @@
       <c r="F343" s="11"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="14" t="str">
+      <c r="A344" s="13" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4466,7 +4584,7 @@
       <c r="F344" s="11"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="14" t="str">
+      <c r="A345" s="13" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4477,7 +4595,7 @@
       <c r="F345" s="11"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="14" t="str">
+      <c r="A346" s="13" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4488,7 +4606,7 @@
       <c r="F346" s="11"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="14" t="str">
+      <c r="A347" s="13" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4499,7 +4617,7 @@
       <c r="F347" s="11"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="14" t="str">
+      <c r="A348" s="13" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4510,7 +4628,7 @@
       <c r="F348" s="11"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="14" t="str">
+      <c r="A349" s="13" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4521,7 +4639,7 @@
       <c r="F349" s="11"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="14" t="str">
+      <c r="A350" s="13" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4532,7 +4650,7 @@
       <c r="F350" s="11"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="14" t="str">
+      <c r="A351" s="13" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4543,7 +4661,7 @@
       <c r="F351" s="11"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="14" t="str">
+      <c r="A352" s="13" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4554,7 +4672,7 @@
       <c r="F352" s="11"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="14" t="str">
+      <c r="A353" s="13" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4565,7 +4683,7 @@
       <c r="F353" s="11"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="14" t="str">
+      <c r="A354" s="13" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4576,7 +4694,7 @@
       <c r="F354" s="11"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="14" t="str">
+      <c r="A355" s="13" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4587,7 +4705,7 @@
       <c r="F355" s="11"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="14" t="str">
+      <c r="A356" s="13" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4598,7 +4716,7 @@
       <c r="F356" s="11"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="14" t="str">
+      <c r="A357" s="13" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4609,7 +4727,7 @@
       <c r="F357" s="11"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="14" t="str">
+      <c r="A358" s="13" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4620,7 +4738,7 @@
       <c r="F358" s="11"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="14" t="str">
+      <c r="A359" s="13" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4631,7 +4749,7 @@
       <c r="F359" s="11"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="14" t="str">
+      <c r="A360" s="13" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4642,7 +4760,7 @@
       <c r="F360" s="11"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="14" t="str">
+      <c r="A361" s="13" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4653,7 +4771,7 @@
       <c r="F361" s="11"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="14" t="str">
+      <c r="A362" s="13" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4664,7 +4782,7 @@
       <c r="F362" s="11"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="14" t="str">
+      <c r="A363" s="13" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4675,7 +4793,7 @@
       <c r="F363" s="11"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="14" t="str">
+      <c r="A364" s="13" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4686,7 +4804,7 @@
       <c r="F364" s="11"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="14" t="str">
+      <c r="A365" s="13" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4697,7 +4815,7 @@
       <c r="F365" s="11"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="14" t="str">
+      <c r="A366" s="13" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4708,7 +4826,7 @@
       <c r="F366" s="11"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="14" t="str">
+      <c r="A367" s="13" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4719,7 +4837,7 @@
       <c r="F367" s="11"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="14" t="str">
+      <c r="A368" s="13" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4730,7 +4848,7 @@
       <c r="F368" s="11"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="14" t="str">
+      <c r="A369" s="13" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4741,7 +4859,7 @@
       <c r="F369" s="11"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="14" t="str">
+      <c r="A370" s="13" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4752,7 +4870,7 @@
       <c r="F370" s="11"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="14" t="str">
+      <c r="A371" s="13" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4763,7 +4881,7 @@
       <c r="F371" s="11"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="14" t="str">
+      <c r="A372" s="13" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4774,7 +4892,7 @@
       <c r="F372" s="11"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="14" t="str">
+      <c r="A373" s="13" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4785,7 +4903,7 @@
       <c r="F373" s="11"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="14" t="str">
+      <c r="A374" s="13" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4796,7 +4914,7 @@
       <c r="F374" s="11"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="14" t="str">
+      <c r="A375" s="13" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4807,7 +4925,7 @@
       <c r="F375" s="11"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="14" t="str">
+      <c r="A376" s="13" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4818,7 +4936,7 @@
       <c r="F376" s="11"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="14" t="str">
+      <c r="A377" s="13" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4829,7 +4947,7 @@
       <c r="F377" s="11"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="14" t="str">
+      <c r="A378" s="13" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4840,7 +4958,7 @@
       <c r="F378" s="11"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="14" t="str">
+      <c r="A379" s="13" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4851,7 +4969,7 @@
       <c r="F379" s="11"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="14" t="str">
+      <c r="A380" s="13" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4862,7 +4980,7 @@
       <c r="F380" s="11"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="14" t="str">
+      <c r="A381" s="13" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4873,7 +4991,7 @@
       <c r="F381" s="11"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="14" t="str">
+      <c r="A382" s="13" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4884,7 +5002,7 @@
       <c r="F382" s="11"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="14" t="str">
+      <c r="A383" s="13" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4895,7 +5013,7 @@
       <c r="F383" s="11"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="14" t="str">
+      <c r="A384" s="13" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4906,7 +5024,7 @@
       <c r="F384" s="11"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="14" t="str">
+      <c r="A385" s="13" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4917,7 +5035,7 @@
       <c r="F385" s="11"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="14" t="str">
+      <c r="A386" s="13" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4928,7 +5046,7 @@
       <c r="F386" s="11"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="14" t="str">
+      <c r="A387" s="13" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4939,7 +5057,7 @@
       <c r="F387" s="11"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="14" t="str">
+      <c r="A388" s="13" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4950,7 +5068,7 @@
       <c r="F388" s="11"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="14" t="str">
+      <c r="A389" s="13" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4961,7 +5079,7 @@
       <c r="F389" s="11"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="14" t="str">
+      <c r="A390" s="13" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4972,7 +5090,7 @@
       <c r="F390" s="11"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="14" t="str">
+      <c r="A391" s="13" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4983,7 +5101,7 @@
       <c r="F391" s="11"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="14" t="str">
+      <c r="A392" s="13" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -4994,7 +5112,7 @@
       <c r="F392" s="11"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="14" t="str">
+      <c r="A393" s="13" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5005,7 +5123,7 @@
       <c r="F393" s="11"/>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="14" t="str">
+      <c r="A394" s="13" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5016,7 +5134,7 @@
       <c r="F394" s="11"/>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="14" t="str">
+      <c r="A395" s="13" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5027,7 +5145,7 @@
       <c r="F395" s="11"/>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="14" t="str">
+      <c r="A396" s="13" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5038,7 +5156,7 @@
       <c r="F396" s="11"/>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="14" t="str">
+      <c r="A397" s="13" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5049,7 +5167,7 @@
       <c r="F397" s="11"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="14" t="str">
+      <c r="A398" s="13" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5060,7 +5178,7 @@
       <c r="F398" s="11"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="14" t="str">
+      <c r="A399" s="13" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5071,7 +5189,7 @@
       <c r="F399" s="11"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="14" t="str">
+      <c r="A400" s="13" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5082,7 +5200,7 @@
       <c r="F400" s="11"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="14" t="str">
+      <c r="A401" s="13" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5093,7 +5211,7 @@
       <c r="F401" s="11"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="14" t="str">
+      <c r="A402" s="13" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5104,7 +5222,7 @@
       <c r="F402" s="11"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="14" t="str">
+      <c r="A403" s="13" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5115,7 +5233,7 @@
       <c r="F403" s="11"/>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="14" t="str">
+      <c r="A404" s="13" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5126,7 +5244,7 @@
       <c r="F404" s="11"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="14" t="str">
+      <c r="A405" s="13" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5137,7 +5255,7 @@
       <c r="F405" s="11"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="14" t="str">
+      <c r="A406" s="13" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5148,7 +5266,7 @@
       <c r="F406" s="11"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="14" t="str">
+      <c r="A407" s="13" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5159,7 +5277,7 @@
       <c r="F407" s="11"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="14" t="str">
+      <c r="A408" s="13" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5170,7 +5288,7 @@
       <c r="F408" s="11"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="14" t="str">
+      <c r="A409" s="13" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5181,7 +5299,7 @@
       <c r="F409" s="11"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="14" t="str">
+      <c r="A410" s="13" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5192,7 +5310,7 @@
       <c r="F410" s="11"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="14" t="str">
+      <c r="A411" s="13" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5203,7 +5321,7 @@
       <c r="F411" s="11"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="14" t="str">
+      <c r="A412" s="13" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5214,7 +5332,7 @@
       <c r="F412" s="11"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="14" t="str">
+      <c r="A413" s="13" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5225,7 +5343,7 @@
       <c r="F413" s="11"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="14" t="str">
+      <c r="A414" s="13" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5236,7 +5354,7 @@
       <c r="F414" s="11"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="14" t="str">
+      <c r="A415" s="13" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5247,7 +5365,7 @@
       <c r="F415" s="11"/>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="14" t="str">
+      <c r="A416" s="13" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5258,7 +5376,7 @@
       <c r="F416" s="11"/>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="14" t="str">
+      <c r="A417" s="13" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5269,7 +5387,7 @@
       <c r="F417" s="11"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="14" t="str">
+      <c r="A418" s="13" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5280,7 +5398,7 @@
       <c r="F418" s="11"/>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="14" t="str">
+      <c r="A419" s="13" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5291,7 +5409,7 @@
       <c r="F419" s="11"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="14" t="str">
+      <c r="A420" s="13" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5302,7 +5420,7 @@
       <c r="F420" s="11"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="14" t="str">
+      <c r="A421" s="13" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5313,7 +5431,7 @@
       <c r="F421" s="11"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="14" t="str">
+      <c r="A422" s="13" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5324,7 +5442,7 @@
       <c r="F422" s="11"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="14" t="str">
+      <c r="A423" s="13" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5335,7 +5453,7 @@
       <c r="F423" s="11"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="14" t="str">
+      <c r="A424" s="13" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5346,7 +5464,7 @@
       <c r="F424" s="11"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="14" t="str">
+      <c r="A425" s="13" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5357,7 +5475,7 @@
       <c r="F425" s="11"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="14" t="str">
+      <c r="A426" s="13" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5368,7 +5486,7 @@
       <c r="F426" s="11"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="14" t="str">
+      <c r="A427" s="13" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5379,7 +5497,7 @@
       <c r="F427" s="11"/>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="14" t="str">
+      <c r="A428" s="13" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5390,7 +5508,7 @@
       <c r="F428" s="11"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="14" t="str">
+      <c r="A429" s="13" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5401,7 +5519,7 @@
       <c r="F429" s="11"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="14" t="str">
+      <c r="A430" s="13" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5412,7 +5530,7 @@
       <c r="F430" s="11"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="14" t="str">
+      <c r="A431" s="13" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5423,7 +5541,7 @@
       <c r="F431" s="11"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="14" t="str">
+      <c r="A432" s="13" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5434,7 +5552,7 @@
       <c r="F432" s="11"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="14" t="str">
+      <c r="A433" s="13" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5445,7 +5563,7 @@
       <c r="F433" s="11"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="14" t="str">
+      <c r="A434" s="13" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5456,7 +5574,7 @@
       <c r="F434" s="11"/>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="14" t="str">
+      <c r="A435" s="13" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5467,7 +5585,7 @@
       <c r="F435" s="11"/>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="14" t="str">
+      <c r="A436" s="13" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5478,7 +5596,7 @@
       <c r="F436" s="11"/>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="14" t="str">
+      <c r="A437" s="13" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5489,7 +5607,7 @@
       <c r="F437" s="11"/>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="14" t="str">
+      <c r="A438" s="13" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5500,7 +5618,7 @@
       <c r="F438" s="11"/>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="14" t="str">
+      <c r="A439" s="13" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5511,7 +5629,7 @@
       <c r="F439" s="11"/>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="14" t="str">
+      <c r="A440" s="13" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5522,7 +5640,7 @@
       <c r="F440" s="11"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="14" t="str">
+      <c r="A441" s="13" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5533,7 +5651,7 @@
       <c r="F441" s="11"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="14" t="str">
+      <c r="A442" s="13" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5544,7 +5662,7 @@
       <c r="F442" s="11"/>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="14" t="str">
+      <c r="A443" s="13" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5555,7 +5673,7 @@
       <c r="F443" s="11"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="14" t="str">
+      <c r="A444" s="13" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5566,7 +5684,7 @@
       <c r="F444" s="11"/>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="14" t="str">
+      <c r="A445" s="13" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5577,7 +5695,7 @@
       <c r="F445" s="11"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="14" t="str">
+      <c r="A446" s="13" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5588,7 +5706,7 @@
       <c r="F446" s="11"/>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="14" t="str">
+      <c r="A447" s="13" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5599,7 +5717,7 @@
       <c r="F447" s="11"/>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="14" t="str">
+      <c r="A448" s="13" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5610,7 +5728,7 @@
       <c r="F448" s="11"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="14" t="str">
+      <c r="A449" s="13" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5621,7 +5739,7 @@
       <c r="F449" s="11"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="14" t="str">
+      <c r="A450" s="13" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5632,7 +5750,7 @@
       <c r="F450" s="11"/>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="14" t="str">
+      <c r="A451" s="13" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5643,7 +5761,7 @@
       <c r="F451" s="11"/>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="14" t="str">
+      <c r="A452" s="13" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5654,7 +5772,7 @@
       <c r="F452" s="11"/>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="14" t="str">
+      <c r="A453" s="13" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5665,7 +5783,7 @@
       <c r="F453" s="11"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="14" t="str">
+      <c r="A454" s="13" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5676,7 +5794,7 @@
       <c r="F454" s="11"/>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="14" t="str">
+      <c r="A455" s="13" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5687,7 +5805,7 @@
       <c r="F455" s="11"/>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="14" t="str">
+      <c r="A456" s="13" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5698,7 +5816,7 @@
       <c r="F456" s="11"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="14" t="str">
+      <c r="A457" s="13" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5709,7 +5827,7 @@
       <c r="F457" s="11"/>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="14" t="str">
+      <c r="A458" s="13" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5720,7 +5838,7 @@
       <c r="F458" s="11"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="14" t="str">
+      <c r="A459" s="13" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5731,7 +5849,7 @@
       <c r="F459" s="11"/>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="14" t="str">
+      <c r="A460" s="13" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5742,7 +5860,7 @@
       <c r="F460" s="11"/>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="14" t="str">
+      <c r="A461" s="13" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5753,7 +5871,7 @@
       <c r="F461" s="11"/>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="14" t="str">
+      <c r="A462" s="13" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5764,7 +5882,7 @@
       <c r="F462" s="11"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="14" t="str">
+      <c r="A463" s="13" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5775,7 +5893,7 @@
       <c r="F463" s="11"/>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="14" t="str">
+      <c r="A464" s="13" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5786,7 +5904,7 @@
       <c r="F464" s="11"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="14" t="str">
+      <c r="A465" s="13" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5797,7 +5915,7 @@
       <c r="F465" s="11"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="14" t="str">
+      <c r="A466" s="13" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5808,7 +5926,7 @@
       <c r="F466" s="11"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="14" t="str">
+      <c r="A467" s="13" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5819,7 +5937,7 @@
       <c r="F467" s="11"/>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="14" t="str">
+      <c r="A468" s="13" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5830,7 +5948,7 @@
       <c r="F468" s="11"/>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="14" t="str">
+      <c r="A469" s="13" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5841,7 +5959,7 @@
       <c r="F469" s="11"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="14" t="str">
+      <c r="A470" s="13" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5852,7 +5970,7 @@
       <c r="F470" s="11"/>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="14" t="str">
+      <c r="A471" s="13" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5863,7 +5981,7 @@
       <c r="F471" s="11"/>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="14" t="str">
+      <c r="A472" s="13" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5874,7 +5992,7 @@
       <c r="F472" s="11"/>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="14" t="str">
+      <c r="A473" s="13" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5885,7 +6003,7 @@
       <c r="F473" s="11"/>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="14" t="str">
+      <c r="A474" s="13" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5896,7 +6014,7 @@
       <c r="F474" s="11"/>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="14" t="str">
+      <c r="A475" s="13" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5907,7 +6025,7 @@
       <c r="F475" s="11"/>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="14" t="str">
+      <c r="A476" s="13" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5918,7 +6036,7 @@
       <c r="F476" s="11"/>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="14" t="str">
+      <c r="A477" s="13" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5929,7 +6047,7 @@
       <c r="F477" s="11"/>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="14" t="str">
+      <c r="A478" s="13" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5940,7 +6058,7 @@
       <c r="F478" s="11"/>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="14" t="str">
+      <c r="A479" s="13" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5951,7 +6069,7 @@
       <c r="F479" s="11"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="14" t="str">
+      <c r="A480" s="13" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5962,7 +6080,7 @@
       <c r="F480" s="11"/>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="14" t="str">
+      <c r="A481" s="13" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5973,7 +6091,7 @@
       <c r="F481" s="11"/>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="14" t="str">
+      <c r="A482" s="13" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5984,7 +6102,7 @@
       <c r="F482" s="11"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="14" t="str">
+      <c r="A483" s="13" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -5995,7 +6113,7 @@
       <c r="F483" s="11"/>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="14" t="str">
+      <c r="A484" s="13" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6006,7 +6124,7 @@
       <c r="F484" s="11"/>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="14" t="str">
+      <c r="A485" s="13" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6017,7 +6135,7 @@
       <c r="F485" s="11"/>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="14" t="str">
+      <c r="A486" s="13" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6028,7 +6146,7 @@
       <c r="F486" s="11"/>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="14" t="str">
+      <c r="A487" s="13" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6039,7 +6157,7 @@
       <c r="F487" s="11"/>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="14" t="str">
+      <c r="A488" s="13" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6050,7 +6168,7 @@
       <c r="F488" s="11"/>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="14" t="str">
+      <c r="A489" s="13" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6061,7 +6179,7 @@
       <c r="F489" s="11"/>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="14" t="str">
+      <c r="A490" s="13" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6072,7 +6190,7 @@
       <c r="F490" s="11"/>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="14" t="str">
+      <c r="A491" s="13" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6083,7 +6201,7 @@
       <c r="F491" s="11"/>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="14" t="str">
+      <c r="A492" s="13" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6094,7 +6212,7 @@
       <c r="F492" s="11"/>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="14" t="str">
+      <c r="A493" s="13" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6105,7 +6223,7 @@
       <c r="F493" s="11"/>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="14" t="str">
+      <c r="A494" s="13" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6116,7 +6234,7 @@
       <c r="F494" s="11"/>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="14" t="str">
+      <c r="A495" s="13" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6127,7 +6245,7 @@
       <c r="F495" s="11"/>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="14" t="str">
+      <c r="A496" s="13" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6138,7 +6256,7 @@
       <c r="F496" s="11"/>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="14" t="str">
+      <c r="A497" s="13" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6149,7 +6267,7 @@
       <c r="F497" s="11"/>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="14" t="str">
+      <c r="A498" s="13" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6160,7 +6278,7 @@
       <c r="F498" s="11"/>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="14" t="str">
+      <c r="A499" s="13" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6171,7 +6289,7 @@
       <c r="F499" s="11"/>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="14" t="str">
+      <c r="A500" s="13" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6182,7 +6300,7 @@
       <c r="F500" s="11"/>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="14" t="str">
+      <c r="A501" s="13" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6193,7 +6311,7 @@
       <c r="F501" s="11"/>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="14" t="str">
+      <c r="A502" s="13" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6204,7 +6322,7 @@
       <c r="F502" s="11"/>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" s="14" t="str">
+      <c r="A503" s="13" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6215,7 +6333,7 @@
       <c r="F503" s="11"/>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="14" t="str">
+      <c r="A504" s="13" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6226,7 +6344,7 @@
       <c r="F504" s="11"/>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="14" t="str">
+      <c r="A505" s="13" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6237,7 +6355,7 @@
       <c r="F505" s="11"/>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="14" t="str">
+      <c r="A506" s="13" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6248,7 +6366,7 @@
       <c r="F506" s="11"/>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507" s="14" t="str">
+      <c r="A507" s="13" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6259,7 +6377,7 @@
       <c r="F507" s="11"/>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A508" s="14" t="str">
+      <c r="A508" s="13" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6270,7 +6388,7 @@
       <c r="F508" s="11"/>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A509" s="14" t="str">
+      <c r="A509" s="13" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6281,7 +6399,7 @@
       <c r="F509" s="11"/>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A510" s="14" t="str">
+      <c r="A510" s="13" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6292,7 +6410,7 @@
       <c r="F510" s="11"/>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A511" s="14" t="str">
+      <c r="A511" s="13" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6303,7 +6421,7 @@
       <c r="F511" s="11"/>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A512" s="14" t="str">
+      <c r="A512" s="13" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6314,7 +6432,7 @@
       <c r="F512" s="11"/>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A513" s="14" t="str">
+      <c r="A513" s="13" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6325,7 +6443,7 @@
       <c r="F513" s="11"/>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A514" s="14" t="str">
+      <c r="A514" s="13" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6336,7 +6454,7 @@
       <c r="F514" s="11"/>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A515" s="14" t="str">
+      <c r="A515" s="13" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6347,7 +6465,7 @@
       <c r="F515" s="11"/>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A516" s="14" t="str">
+      <c r="A516" s="13" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6358,7 +6476,7 @@
       <c r="F516" s="11"/>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A517" s="14" t="str">
+      <c r="A517" s="13" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6369,7 +6487,7 @@
       <c r="F517" s="11"/>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A518" s="14" t="str">
+      <c r="A518" s="13" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6380,7 +6498,7 @@
       <c r="F518" s="11"/>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A519" s="14" t="str">
+      <c r="A519" s="13" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6391,7 +6509,7 @@
       <c r="F519" s="11"/>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A520" s="14" t="str">
+      <c r="A520" s="13" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6402,7 +6520,7 @@
       <c r="F520" s="11"/>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A521" s="14" t="str">
+      <c r="A521" s="13" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6413,7 +6531,7 @@
       <c r="F521" s="11"/>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A522" s="14" t="str">
+      <c r="A522" s="13" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6424,7 +6542,7 @@
       <c r="F522" s="11"/>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A523" s="14" t="str">
+      <c r="A523" s="13" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6435,7 +6553,7 @@
       <c r="F523" s="11"/>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" s="14" t="str">
+      <c r="A524" s="13" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6446,7 +6564,7 @@
       <c r="F524" s="11"/>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525" s="14" t="str">
+      <c r="A525" s="13" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6457,7 +6575,7 @@
       <c r="F525" s="11"/>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A526" s="14" t="str">
+      <c r="A526" s="13" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6468,7 +6586,7 @@
       <c r="F526" s="11"/>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A527" s="14" t="str">
+      <c r="A527" s="13" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6479,7 +6597,7 @@
       <c r="F527" s="11"/>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A528" s="14" t="str">
+      <c r="A528" s="13" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6490,7 +6608,7 @@
       <c r="F528" s="11"/>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529" s="14" t="str">
+      <c r="A529" s="13" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6501,7 +6619,7 @@
       <c r="F529" s="11"/>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A530" s="14" t="str">
+      <c r="A530" s="13" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6512,7 +6630,7 @@
       <c r="F530" s="11"/>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A531" s="14" t="str">
+      <c r="A531" s="13" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
       </c>
@@ -6527,20 +6645,20 @@
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="D6:D13 D15:D531">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6558,6 +6676,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6780,27 +6918,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6817,23 +6954,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9ACA0-5CB8-4C76-ADC4-B2667DFF842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D6C40C-1CA2-417C-B93D-7128E36C2844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Toujours le même problème avec la connexion à la db, j'ai commencé à utiliser les tokens jwt</t>
+  </si>
+  <si>
+    <t>J'ai réglé le problème de connexion à la base de donnée.</t>
   </si>
 </sst>
 </file>
@@ -275,62 +278,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -380,6 +339,50 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -394,7 +397,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -402,14 +405,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,7 +608,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,10 +640,10 @@
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
@@ -669,7 +672,7 @@
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.1979166666666666</v>
+        <v>0.20833333333333326</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -677,9 +680,9 @@
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45401</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1061,17 +1064,27 @@
       <c r="E24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="10">
+        <v>0.59375</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
+      <c r="A25" s="13">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6646,19 +6659,19 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13 D15:D531">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6676,26 +6689,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6918,26 +6911,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6954,4 +6948,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D6C40C-1CA2-417C-B93D-7128E36C2844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C10AAE-42DF-4711-B07C-B7D93C0A92F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>J'ai réglé le problème de connexion à la base de donnée.</t>
+  </si>
+  <si>
+    <t>J'essaie de régler le problème à la db</t>
+  </si>
+  <si>
+    <t>Je regarde les routes déjà créé et j'essaie de les utiliser</t>
+  </si>
+  <si>
+    <t>Je crée la base de donnée</t>
+  </si>
+  <si>
+    <t>J'ai un problème avec la connexion à la db, mon code ne trouve pas toutes les bases de donnée</t>
+  </si>
+  <si>
+    <t>Problème réglé, j'étais sur le port d'un autre stack</t>
+  </si>
+  <si>
+    <t>J'essaie de créer la route pour créer un utilisateur</t>
   </si>
 </sst>
 </file>
@@ -291,6 +309,50 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -339,50 +401,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -397,7 +415,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -405,14 +423,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,8 +625,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,7 +690,7 @@
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.20833333333333326</v>
+        <v>0.28125000000000017</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1064,9 +1082,7 @@
       <c r="E24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="10">
-        <v>0.59375</v>
-      </c>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -1083,86 +1099,142 @@
         <v>8</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v>17</v>
+      </c>
+      <c r="B26" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="str">
-        <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
+      <c r="A27" s="13">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B27" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
+      <c r="A28" s="13">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="str">
+      <c r="A29" s="13">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
+      <c r="A30" s="13">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B30" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="str">
+      <c r="A31" s="13">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B31" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="13">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B32" s="9">
+        <v>45408</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="str">
@@ -1173,7 +1245,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
@@ -1184,7 +1256,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
@@ -1195,7 +1267,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
@@ -6659,19 +6731,19 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13 D15:D531">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6689,6 +6761,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6911,27 +7003,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6948,23 +7039,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C10AAE-42DF-4711-B07C-B7D93C0A92F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4C0BEE-C57C-47ED-8C88-293FE7703CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -175,6 +175,33 @@
   <si>
     <t>J'essaie de créer la route pour créer un utilisateur</t>
   </si>
+  <si>
+    <t>Mise en place de l'environnement de travail, j'ai une erreur docker</t>
+  </si>
+  <si>
+    <t>J'ai identifié l'erreur, lors de ma connexion à la DB mais pas encore résolu</t>
+  </si>
+  <si>
+    <t>J'ai réglé le problème, la configuration du port n'était pas entre guillemet</t>
+  </si>
+  <si>
+    <t>J'ai un autre problème avec mon container, le problème c'est réglé en relançant la commande "docker compose up"</t>
+  </si>
+  <si>
+    <t>J'essaye de me reconnecter à la base de donnée (node:events:496)</t>
+  </si>
+  <si>
+    <t>J'essaie de me reconnecter à la base de donnée</t>
+  </si>
+  <si>
+    <t>J'essaye de me reconnecter à la base de donnée. Le container phpmyadmin a un problème</t>
+  </si>
+  <si>
+    <t>J'ai réglé l'erreur avec phpmyadmin. Je continue d'essayer de me reconnecter à la base de donnée</t>
+  </si>
+  <si>
+    <t>J'essaie de régler l'erreur de connexion TCP à la base de donnée</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +254,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -254,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -301,6 +334,10 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -625,8 +662,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,7 +671,7 @@
     <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
     <col min="6" max="6" width="72.125" customWidth="1"/>
     <col min="10" max="10" width="7.5" hidden="1" customWidth="1"/>
@@ -690,7 +727,7 @@
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.28125000000000017</v>
+        <v>0.37500000000000033</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -700,7 +737,7 @@
       </c>
       <c r="F3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45408</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1237,102 +1274,174 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
+      <c r="A33" s="13">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B33" s="9">
+        <v>45415</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="str">
+      <c r="A34" s="13">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B34" s="9">
+        <v>45415</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="str">
+      <c r="A35" s="13">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B35" s="9">
+        <v>45415</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="str">
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B36" s="9">
+        <v>45415</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="str">
+      <c r="A37" s="13">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B37" s="9">
+        <v>45415</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="str">
+      <c r="A38" s="13">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B38" s="9">
+        <v>45415</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="str">
+      <c r="A39" s="13">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B39" s="9">
+        <v>45415</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="str">
+      <c r="A40" s="13">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B40" s="9">
+        <v>45415</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="str">
+      <c r="A41" s="13">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B41" s="9">
+        <v>45415</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6730,6 +6839,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D6:D13 D15:D531">
     <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
@@ -6761,26 +6871,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7003,26 +7093,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7039,4 +7130,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4C0BEE-C57C-47ED-8C88-293FE7703CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D727B-7E40-4594-A7C8-D1C2E40CE554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -202,6 +202,9 @@
   <si>
     <t>J'essaie de régler l'erreur de connexion TCP à la base de donnée</t>
   </si>
+  <si>
+    <t>Je règle les erreurs que j'avais avec mon application</t>
+  </si>
 </sst>
 </file>
 
@@ -329,15 +332,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -662,26 +665,26 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="72.125" customWidth="1"/>
+    <col min="6" max="6" width="72.08203125" customWidth="1"/>
     <col min="10" max="10" width="7.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.58203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -691,14 +694,14 @@
       </c>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
@@ -721,13 +724,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.37500000000000033</v>
+        <v>0.38541666666666702</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -737,10 +740,10 @@
       </c>
       <c r="F3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -760,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -779,7 +782,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -798,7 +801,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -817,7 +820,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -836,7 +839,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -855,7 +858,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -874,7 +877,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -893,7 +896,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -912,7 +915,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -931,7 +934,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -950,7 +953,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -969,7 +972,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -988,7 +991,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1007,7 +1010,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1026,7 +1029,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1045,7 +1048,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1083,7 +1086,7 @@
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1102,7 +1105,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1121,7 +1124,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1140,7 +1143,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1159,7 +1162,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1178,7 +1181,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1197,7 +1200,7 @@
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1216,7 +1219,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1235,7 +1238,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1273,7 +1276,7 @@
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1292,7 +1295,7 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1311,7 +1314,7 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1330,7 +1333,7 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1344,12 +1347,12 @@
       <c r="D36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1368,7 +1371,7 @@
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1387,7 +1390,7 @@
       </c>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1406,7 +1409,7 @@
       </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1425,7 +1428,7 @@
       </c>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1444,18 +1447,26 @@
       </c>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="str">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B42" s="9">
+        <v>45424</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1466,7 +1477,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1477,7 +1488,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1488,7 +1499,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1499,7 +1510,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1510,7 +1521,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1521,7 +1532,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1532,7 +1543,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1543,7 +1554,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1554,7 +1565,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1565,7 +1576,7 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1576,7 +1587,7 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1587,7 +1598,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1598,7 +1609,7 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1609,7 +1620,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1620,7 +1631,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1631,7 +1642,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1642,7 +1653,7 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1653,7 +1664,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1664,7 +1675,7 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1675,7 +1686,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1686,7 +1697,7 @@
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1697,7 +1708,7 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1708,7 +1719,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1719,7 +1730,7 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1730,7 +1741,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1741,7 +1752,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1752,7 +1763,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1763,7 +1774,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1774,7 +1785,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1785,7 +1796,7 @@
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1796,7 +1807,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1807,7 +1818,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1818,7 +1829,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1829,7 +1840,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1840,7 +1851,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1851,7 +1862,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1862,7 +1873,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1873,7 +1884,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1884,7 +1895,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="13" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1895,7 +1906,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1906,7 +1917,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1917,7 +1928,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1928,7 +1939,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1939,7 +1950,7 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1950,7 +1961,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1961,7 +1972,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1972,7 +1983,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1983,7 +1994,7 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1994,7 +2005,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2005,7 +2016,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2016,7 +2027,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2027,7 +2038,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2038,7 +2049,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2049,7 +2060,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2060,7 +2071,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2071,7 +2082,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2082,7 +2093,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2093,7 +2104,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="13" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2104,7 +2115,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2115,7 +2126,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2126,7 +2137,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="13" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2137,7 +2148,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2148,7 +2159,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2159,7 +2170,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2170,7 +2181,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2181,7 +2192,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2192,7 +2203,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2203,7 +2214,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2214,7 +2225,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2225,7 +2236,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2236,7 +2247,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="13" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2247,7 +2258,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2258,7 +2269,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="13" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2269,7 +2280,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2280,7 +2291,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="13" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2291,7 +2302,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2302,7 +2313,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2313,7 +2324,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="13" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2324,7 +2335,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="13" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2335,7 +2346,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2346,7 +2357,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2357,7 +2368,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2368,7 +2379,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2379,7 +2390,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2390,7 +2401,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2401,7 +2412,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2412,7 +2423,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2423,7 +2434,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2434,7 +2445,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2445,7 +2456,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2456,7 +2467,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2467,7 +2478,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2478,7 +2489,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2489,7 +2500,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2500,7 +2511,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2511,7 +2522,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2522,7 +2533,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2533,7 +2544,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2544,7 +2555,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2555,7 +2566,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="13" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2566,7 +2577,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="13" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2577,7 +2588,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="13" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2588,7 +2599,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2599,7 +2610,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2610,7 +2621,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="13" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2621,7 +2632,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="13" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2632,7 +2643,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="13" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2643,7 +2654,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="13" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2654,7 +2665,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="13" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2665,7 +2676,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="13" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2676,7 +2687,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2687,7 +2698,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2698,7 +2709,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2709,7 +2720,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2720,7 +2731,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2731,7 +2742,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="13" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2742,7 +2753,7 @@
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2753,7 +2764,7 @@
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2764,7 +2775,7 @@
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2775,7 +2786,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2786,7 +2797,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2797,7 +2808,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="13" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2808,7 +2819,7 @@
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2819,7 +2830,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="13" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2830,7 +2841,7 @@
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="13" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2841,7 +2852,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="13" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2852,7 +2863,7 @@
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="13" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2863,7 +2874,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="13" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2874,7 +2885,7 @@
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2885,7 +2896,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2896,7 +2907,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2907,7 +2918,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2918,7 +2929,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2929,7 +2940,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="13" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2940,7 +2951,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="13" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2951,7 +2962,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2962,7 +2973,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2973,7 +2984,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2984,7 +2995,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2995,7 +3006,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="13" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3006,7 +3017,7 @@
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="13" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3017,7 +3028,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3028,7 +3039,7 @@
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3039,7 +3050,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3050,7 +3061,7 @@
       <c r="E187" s="11"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3061,7 +3072,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="13" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3072,7 +3083,7 @@
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="13" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3083,7 +3094,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="13" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3094,7 +3105,7 @@
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="13" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3105,7 +3116,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="13" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3116,7 +3127,7 @@
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="13" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3127,7 +3138,7 @@
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="13" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3138,7 +3149,7 @@
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="13" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3149,7 +3160,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="13" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3160,7 +3171,7 @@
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="13" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3171,7 +3182,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="13" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3182,7 +3193,7 @@
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="13" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3193,7 +3204,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="13" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3204,7 +3215,7 @@
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="13" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3215,7 +3226,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="13" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3226,7 +3237,7 @@
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="13" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3237,7 +3248,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="13" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3248,7 +3259,7 @@
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="13" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3259,7 +3270,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="13" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3270,7 +3281,7 @@
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="13" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3281,7 +3292,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="13" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3292,7 +3303,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="13" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3303,7 +3314,7 @@
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="13" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3314,7 +3325,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="13" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3325,7 +3336,7 @@
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="13" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3336,7 +3347,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="13" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3347,7 +3358,7 @@
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="13" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3358,7 +3369,7 @@
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="13" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3369,7 +3380,7 @@
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="13" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3380,7 +3391,7 @@
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="13" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3391,7 +3402,7 @@
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="13" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3402,7 +3413,7 @@
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="13" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3413,7 +3424,7 @@
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="13" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3424,7 +3435,7 @@
       <c r="E221" s="11"/>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3435,7 +3446,7 @@
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="13" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3446,7 +3457,7 @@
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="13" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3457,7 +3468,7 @@
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="13" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3468,7 +3479,7 @@
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="13" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3479,7 +3490,7 @@
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="13" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3490,7 +3501,7 @@
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="13" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3501,7 +3512,7 @@
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="13" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3512,7 +3523,7 @@
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="13" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3523,7 +3534,7 @@
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="13" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3534,7 +3545,7 @@
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="13" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3545,7 +3556,7 @@
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="13" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3556,7 +3567,7 @@
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="13" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3567,7 +3578,7 @@
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="13" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3578,7 +3589,7 @@
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="13" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3589,7 +3600,7 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="13" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3600,7 +3611,7 @@
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="13" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3611,7 +3622,7 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="13" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3622,7 +3633,7 @@
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="13" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3633,7 +3644,7 @@
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="13" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3644,7 +3655,7 @@
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="13" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3655,7 +3666,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="13" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3666,7 +3677,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="13" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3677,7 +3688,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="13" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3688,7 +3699,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="13" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3699,7 +3710,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="13" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3710,7 +3721,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="13" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3721,7 +3732,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="13" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3732,7 +3743,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="13" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3743,7 +3754,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="13" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3754,7 +3765,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="13" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3765,7 +3776,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="13" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3776,7 +3787,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="13" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3787,7 +3798,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="13" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3798,7 +3809,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="13" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3809,7 +3820,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="13" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3820,7 +3831,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="13" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3831,7 +3842,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="13" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3842,7 +3853,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="13" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3853,7 +3864,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="13" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3864,7 +3875,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="13" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3875,7 +3886,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="13" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3886,7 +3897,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="13" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3897,7 +3908,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="13" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3908,7 +3919,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="13" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3919,7 +3930,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="13" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3930,7 +3941,7 @@
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="13" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3941,7 +3952,7 @@
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="13" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3952,7 +3963,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="13" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3963,7 +3974,7 @@
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="13" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3974,7 +3985,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="13" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3985,7 +3996,7 @@
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="13" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3996,7 +4007,7 @@
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="13" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4007,7 +4018,7 @@
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="13" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4018,7 +4029,7 @@
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="13" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4029,7 +4040,7 @@
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="13" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4040,7 +4051,7 @@
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="13" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4051,7 +4062,7 @@
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="13" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4062,7 +4073,7 @@
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="13" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4073,7 +4084,7 @@
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="13" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4084,7 +4095,7 @@
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="13" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4095,7 +4106,7 @@
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="13" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4106,7 +4117,7 @@
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="13" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4117,7 +4128,7 @@
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="13" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4128,7 +4139,7 @@
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="13" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4139,7 +4150,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="13" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4150,7 +4161,7 @@
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="13" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4161,7 +4172,7 @@
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="13" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4172,7 +4183,7 @@
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="13" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4183,7 +4194,7 @@
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="13" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4194,7 +4205,7 @@
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="13" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4205,7 +4216,7 @@
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="13" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4216,7 +4227,7 @@
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="13" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4227,7 +4238,7 @@
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="13" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4238,7 +4249,7 @@
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="13" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4249,7 +4260,7 @@
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="13" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4260,7 +4271,7 @@
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="13" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4271,7 +4282,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="13" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4282,7 +4293,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="13" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4293,7 +4304,7 @@
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="13" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4304,7 +4315,7 @@
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="13" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4315,7 +4326,7 @@
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="13" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4326,7 +4337,7 @@
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="13" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4337,7 +4348,7 @@
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="13" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4348,7 +4359,7 @@
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="13" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4359,7 +4370,7 @@
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="13" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4370,7 +4381,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="13" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4381,7 +4392,7 @@
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="13" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4392,7 +4403,7 @@
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="13" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4403,7 +4414,7 @@
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="13" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4414,7 +4425,7 @@
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="13" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4425,7 +4436,7 @@
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="13" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4436,7 +4447,7 @@
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="13" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4447,7 +4458,7 @@
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="13" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4458,7 +4469,7 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="13" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4469,7 +4480,7 @@
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="13" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4480,7 +4491,7 @@
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="13" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4491,7 +4502,7 @@
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="13" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4502,7 +4513,7 @@
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="13" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4513,7 +4524,7 @@
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="13" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4524,7 +4535,7 @@
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="13" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4535,7 +4546,7 @@
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="13" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4546,7 +4557,7 @@
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="13" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4557,7 +4568,7 @@
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="13" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4568,7 +4579,7 @@
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="13" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4579,7 +4590,7 @@
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="13" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4590,7 +4601,7 @@
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="13" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4601,7 +4612,7 @@
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="13" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4612,7 +4623,7 @@
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="13" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4623,7 +4634,7 @@
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="13" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4634,7 +4645,7 @@
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="13" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4645,7 +4656,7 @@
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="13" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4656,7 +4667,7 @@
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="13" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4667,7 +4678,7 @@
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="13" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4678,7 +4689,7 @@
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="13" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4689,7 +4700,7 @@
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="13" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4700,7 +4711,7 @@
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="13" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4711,7 +4722,7 @@
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="13" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4722,7 +4733,7 @@
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="13" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4733,7 +4744,7 @@
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="13" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4744,7 +4755,7 @@
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="13" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4755,7 +4766,7 @@
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="13" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4766,7 +4777,7 @@
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="13" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4777,7 +4788,7 @@
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="13" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4788,7 +4799,7 @@
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="13" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4799,7 +4810,7 @@
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="13" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4810,7 +4821,7 @@
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="13" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4821,7 +4832,7 @@
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="13" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4832,7 +4843,7 @@
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="13" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4843,7 +4854,7 @@
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="13" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4854,7 +4865,7 @@
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="13" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4865,7 +4876,7 @@
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="13" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4876,7 +4887,7 @@
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="13" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4887,7 +4898,7 @@
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="13" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4898,7 +4909,7 @@
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="13" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4909,7 +4920,7 @@
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="13" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4920,7 +4931,7 @@
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="13" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4931,7 +4942,7 @@
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="13" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4942,7 +4953,7 @@
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="13" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4953,7 +4964,7 @@
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="13" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4964,7 +4975,7 @@
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4975,7 +4986,7 @@
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="13" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4986,7 +4997,7 @@
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="13" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4997,7 +5008,7 @@
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="13" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5008,7 +5019,7 @@
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5019,7 +5030,7 @@
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="13" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5030,7 +5041,7 @@
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="13" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5041,7 +5052,7 @@
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="13" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5052,7 +5063,7 @@
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="13" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5063,7 +5074,7 @@
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="13" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5074,7 +5085,7 @@
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="13" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5085,7 +5096,7 @@
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="13" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5096,7 +5107,7 @@
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="13" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5107,7 +5118,7 @@
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="13" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5118,7 +5129,7 @@
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="13" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5129,7 +5140,7 @@
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="13" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5140,7 +5151,7 @@
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="13" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5151,7 +5162,7 @@
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="13" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5162,7 +5173,7 @@
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="13" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5173,7 +5184,7 @@
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="13" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5184,7 +5195,7 @@
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="13" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5195,7 +5206,7 @@
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="13" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5206,7 +5217,7 @@
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="13" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5217,7 +5228,7 @@
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="13" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5228,7 +5239,7 @@
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="13" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5239,7 +5250,7 @@
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="13" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5250,7 +5261,7 @@
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="13" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5261,7 +5272,7 @@
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="13" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5272,7 +5283,7 @@
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="13" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5283,7 +5294,7 @@
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="13" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5294,7 +5305,7 @@
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="13" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5305,7 +5316,7 @@
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="13" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5316,7 +5327,7 @@
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="13" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5327,7 +5338,7 @@
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="13" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5338,7 +5349,7 @@
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="13" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5349,7 +5360,7 @@
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="13" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5360,7 +5371,7 @@
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="13" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5371,7 +5382,7 @@
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="13" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5382,7 +5393,7 @@
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="13" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5393,7 +5404,7 @@
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="13" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5404,7 +5415,7 @@
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="13" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5415,7 +5426,7 @@
       <c r="E402" s="11"/>
       <c r="F402" s="11"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="13" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5426,7 +5437,7 @@
       <c r="E403" s="11"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="13" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5437,7 +5448,7 @@
       <c r="E404" s="11"/>
       <c r="F404" s="11"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="13" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5448,7 +5459,7 @@
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="13" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5459,7 +5470,7 @@
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="13" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5470,7 +5481,7 @@
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="13" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5481,7 +5492,7 @@
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="13" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5492,7 +5503,7 @@
       <c r="E409" s="11"/>
       <c r="F409" s="11"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="13" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5503,7 +5514,7 @@
       <c r="E410" s="11"/>
       <c r="F410" s="11"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="13" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5514,7 +5525,7 @@
       <c r="E411" s="11"/>
       <c r="F411" s="11"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="13" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5525,7 +5536,7 @@
       <c r="E412" s="11"/>
       <c r="F412" s="11"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="13" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5536,7 +5547,7 @@
       <c r="E413" s="11"/>
       <c r="F413" s="11"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="13" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5547,7 +5558,7 @@
       <c r="E414" s="11"/>
       <c r="F414" s="11"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="13" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5558,7 +5569,7 @@
       <c r="E415" s="11"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="13" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5569,7 +5580,7 @@
       <c r="E416" s="11"/>
       <c r="F416" s="11"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="13" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5580,7 +5591,7 @@
       <c r="E417" s="11"/>
       <c r="F417" s="11"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="13" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5591,7 +5602,7 @@
       <c r="E418" s="11"/>
       <c r="F418" s="11"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="13" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5602,7 +5613,7 @@
       <c r="E419" s="11"/>
       <c r="F419" s="11"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="13" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5613,7 +5624,7 @@
       <c r="E420" s="11"/>
       <c r="F420" s="11"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="13" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5624,7 +5635,7 @@
       <c r="E421" s="11"/>
       <c r="F421" s="11"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="13" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5635,7 +5646,7 @@
       <c r="E422" s="11"/>
       <c r="F422" s="11"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="13" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5646,7 +5657,7 @@
       <c r="E423" s="11"/>
       <c r="F423" s="11"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="13" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5657,7 +5668,7 @@
       <c r="E424" s="11"/>
       <c r="F424" s="11"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="13" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5668,7 +5679,7 @@
       <c r="E425" s="11"/>
       <c r="F425" s="11"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="13" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5679,7 +5690,7 @@
       <c r="E426" s="11"/>
       <c r="F426" s="11"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="13" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5690,7 +5701,7 @@
       <c r="E427" s="11"/>
       <c r="F427" s="11"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="13" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5701,7 +5712,7 @@
       <c r="E428" s="11"/>
       <c r="F428" s="11"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="13" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5712,7 +5723,7 @@
       <c r="E429" s="11"/>
       <c r="F429" s="11"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="13" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5723,7 +5734,7 @@
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="13" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5734,7 +5745,7 @@
       <c r="E431" s="11"/>
       <c r="F431" s="11"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="13" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5745,7 +5756,7 @@
       <c r="E432" s="11"/>
       <c r="F432" s="11"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="13" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5756,7 +5767,7 @@
       <c r="E433" s="11"/>
       <c r="F433" s="11"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="13" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5767,7 +5778,7 @@
       <c r="E434" s="11"/>
       <c r="F434" s="11"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="13" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5778,7 +5789,7 @@
       <c r="E435" s="11"/>
       <c r="F435" s="11"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="13" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5789,7 +5800,7 @@
       <c r="E436" s="11"/>
       <c r="F436" s="11"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="13" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5800,7 +5811,7 @@
       <c r="E437" s="11"/>
       <c r="F437" s="11"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="13" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5811,7 +5822,7 @@
       <c r="E438" s="11"/>
       <c r="F438" s="11"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="13" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5822,7 +5833,7 @@
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="13" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5833,7 +5844,7 @@
       <c r="E440" s="11"/>
       <c r="F440" s="11"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="13" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5844,7 +5855,7 @@
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="13" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5855,7 +5866,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="13" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5866,7 +5877,7 @@
       <c r="E443" s="11"/>
       <c r="F443" s="11"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="13" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5877,7 +5888,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="13" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5888,7 +5899,7 @@
       <c r="E445" s="11"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="13" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5899,7 +5910,7 @@
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="13" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5910,7 +5921,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="13" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5921,7 +5932,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="11"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="13" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5932,7 +5943,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="11"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="13" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5943,7 +5954,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="11"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="13" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5954,7 +5965,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="13" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5965,7 +5976,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="13" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5976,7 +5987,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="11"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="13" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5987,7 +5998,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="11"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="13" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5998,7 +6009,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="11"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="13" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6009,7 +6020,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="11"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="13" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6020,7 +6031,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="11"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="13" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6031,7 +6042,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="11"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="13" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6042,7 +6053,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="11"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="13" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6053,7 +6064,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="11"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="13" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6064,7 +6075,7 @@
       <c r="E461" s="11"/>
       <c r="F461" s="11"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="13" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6075,7 +6086,7 @@
       <c r="E462" s="11"/>
       <c r="F462" s="11"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="13" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6086,7 +6097,7 @@
       <c r="E463" s="11"/>
       <c r="F463" s="11"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="13" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6097,7 +6108,7 @@
       <c r="E464" s="11"/>
       <c r="F464" s="11"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="13" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6108,7 +6119,7 @@
       <c r="E465" s="11"/>
       <c r="F465" s="11"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="13" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6119,7 +6130,7 @@
       <c r="E466" s="11"/>
       <c r="F466" s="11"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="13" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6130,7 +6141,7 @@
       <c r="E467" s="11"/>
       <c r="F467" s="11"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="13" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6141,7 +6152,7 @@
       <c r="E468" s="11"/>
       <c r="F468" s="11"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="13" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6152,7 +6163,7 @@
       <c r="E469" s="11"/>
       <c r="F469" s="11"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="13" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6163,7 +6174,7 @@
       <c r="E470" s="11"/>
       <c r="F470" s="11"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="13" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6174,7 +6185,7 @@
       <c r="E471" s="11"/>
       <c r="F471" s="11"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="13" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6185,7 +6196,7 @@
       <c r="E472" s="11"/>
       <c r="F472" s="11"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="13" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6196,7 +6207,7 @@
       <c r="E473" s="11"/>
       <c r="F473" s="11"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="13" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6207,7 +6218,7 @@
       <c r="E474" s="11"/>
       <c r="F474" s="11"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="13" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6218,7 +6229,7 @@
       <c r="E475" s="11"/>
       <c r="F475" s="11"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="13" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6229,7 +6240,7 @@
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="13" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6240,7 +6251,7 @@
       <c r="E477" s="11"/>
       <c r="F477" s="11"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="13" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6251,7 +6262,7 @@
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="13" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6262,7 +6273,7 @@
       <c r="E479" s="11"/>
       <c r="F479" s="11"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="13" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6273,7 +6284,7 @@
       <c r="E480" s="11"/>
       <c r="F480" s="11"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="13" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6284,7 +6295,7 @@
       <c r="E481" s="11"/>
       <c r="F481" s="11"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="13" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6295,7 +6306,7 @@
       <c r="E482" s="11"/>
       <c r="F482" s="11"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="13" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6306,7 +6317,7 @@
       <c r="E483" s="11"/>
       <c r="F483" s="11"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="13" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6317,7 +6328,7 @@
       <c r="E484" s="11"/>
       <c r="F484" s="11"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="13" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6328,7 +6339,7 @@
       <c r="E485" s="11"/>
       <c r="F485" s="11"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="13" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6339,7 +6350,7 @@
       <c r="E486" s="11"/>
       <c r="F486" s="11"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="13" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6350,7 +6361,7 @@
       <c r="E487" s="11"/>
       <c r="F487" s="11"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="13" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6361,7 +6372,7 @@
       <c r="E488" s="11"/>
       <c r="F488" s="11"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="13" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6372,7 +6383,7 @@
       <c r="E489" s="11"/>
       <c r="F489" s="11"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="13" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6383,7 +6394,7 @@
       <c r="E490" s="11"/>
       <c r="F490" s="11"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="13" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6394,7 +6405,7 @@
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="13" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6405,7 +6416,7 @@
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="13" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6416,7 +6427,7 @@
       <c r="E493" s="11"/>
       <c r="F493" s="11"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="13" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6427,7 +6438,7 @@
       <c r="E494" s="11"/>
       <c r="F494" s="11"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="13" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6438,7 +6449,7 @@
       <c r="E495" s="11"/>
       <c r="F495" s="11"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="13" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6449,7 +6460,7 @@
       <c r="E496" s="11"/>
       <c r="F496" s="11"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="13" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6460,7 +6471,7 @@
       <c r="E497" s="11"/>
       <c r="F497" s="11"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="13" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6471,7 +6482,7 @@
       <c r="E498" s="11"/>
       <c r="F498" s="11"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="13" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6482,7 +6493,7 @@
       <c r="E499" s="11"/>
       <c r="F499" s="11"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="13" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6493,7 +6504,7 @@
       <c r="E500" s="11"/>
       <c r="F500" s="11"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="13" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6504,7 +6515,7 @@
       <c r="E501" s="11"/>
       <c r="F501" s="11"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="13" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6515,7 +6526,7 @@
       <c r="E502" s="11"/>
       <c r="F502" s="11"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="13" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6526,7 +6537,7 @@
       <c r="E503" s="11"/>
       <c r="F503" s="11"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="13" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6537,7 +6548,7 @@
       <c r="E504" s="11"/>
       <c r="F504" s="11"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="13" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6548,7 +6559,7 @@
       <c r="E505" s="11"/>
       <c r="F505" s="11"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="13" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6559,7 +6570,7 @@
       <c r="E506" s="11"/>
       <c r="F506" s="11"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="13" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6570,7 +6581,7 @@
       <c r="E507" s="11"/>
       <c r="F507" s="11"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="13" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6581,7 +6592,7 @@
       <c r="E508" s="11"/>
       <c r="F508" s="11"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="13" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6592,7 +6603,7 @@
       <c r="E509" s="11"/>
       <c r="F509" s="11"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="13" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6603,7 +6614,7 @@
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="13" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6614,7 +6625,7 @@
       <c r="E511" s="11"/>
       <c r="F511" s="11"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="13" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6625,7 +6636,7 @@
       <c r="E512" s="11"/>
       <c r="F512" s="11"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="13" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6636,7 +6647,7 @@
       <c r="E513" s="11"/>
       <c r="F513" s="11"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="13" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6647,7 +6658,7 @@
       <c r="E514" s="11"/>
       <c r="F514" s="11"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="13" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6658,7 +6669,7 @@
       <c r="E515" s="11"/>
       <c r="F515" s="11"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="13" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6669,7 +6680,7 @@
       <c r="E516" s="11"/>
       <c r="F516" s="11"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="13" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6680,7 +6691,7 @@
       <c r="E517" s="11"/>
       <c r="F517" s="11"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="13" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6691,7 +6702,7 @@
       <c r="E518" s="11"/>
       <c r="F518" s="11"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="13" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6702,7 +6713,7 @@
       <c r="E519" s="11"/>
       <c r="F519" s="11"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="13" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6713,7 +6724,7 @@
       <c r="E520" s="11"/>
       <c r="F520" s="11"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="13" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6724,7 +6735,7 @@
       <c r="E521" s="11"/>
       <c r="F521" s="11"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="13" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6735,7 +6746,7 @@
       <c r="E522" s="11"/>
       <c r="F522" s="11"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="13" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6746,7 +6757,7 @@
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="13" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6757,7 +6768,7 @@
       <c r="E524" s="11"/>
       <c r="F524" s="11"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="13" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6768,7 +6779,7 @@
       <c r="E525" s="11"/>
       <c r="F525" s="11"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="13" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6779,7 +6790,7 @@
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="13" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6790,7 +6801,7 @@
       <c r="E527" s="11"/>
       <c r="F527" s="11"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="13" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6801,7 +6812,7 @@
       <c r="E528" s="11"/>
       <c r="F528" s="11"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="13" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6812,7 +6823,7 @@
       <c r="E529" s="11"/>
       <c r="F529" s="11"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="13" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6823,7 +6834,7 @@
       <c r="E530" s="11"/>
       <c r="F530" s="11"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="13" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6871,6 +6882,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7093,27 +7124,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7130,23 +7160,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D727B-7E40-4594-A7C8-D1C2E40CE554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8EB508-BDE4-4EC5-9E2B-B353B02C490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>Je règle les erreurs que j'avais avec mon application</t>
+  </si>
+  <si>
+    <t>J'ai une erreur docker qui apparaît parfois.</t>
+  </si>
+  <si>
+    <t>Écouter des instructions sur "Eurocks"</t>
+  </si>
+  <si>
+    <t>J'essaie de récupérer le body de ma requête post. J'y arrive en modifiant mon middleware</t>
+  </si>
+  <si>
+    <t>Je vérifie si l'utilisateur existe dans la base de donnée</t>
   </si>
 </sst>
 </file>
@@ -666,25 +678,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="72.08203125" customWidth="1"/>
+    <col min="6" max="6" width="72.125" customWidth="1"/>
     <col min="10" max="10" width="7.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.08203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.58203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -694,7 +706,7 @@
       </c>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
@@ -724,13 +736,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.38541666666666702</v>
+        <v>0.53125000000000078</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -740,10 +752,10 @@
       </c>
       <c r="F3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -763,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -782,7 +794,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -801,7 +813,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -820,7 +832,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -839,7 +851,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -858,7 +870,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -877,7 +889,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -896,7 +908,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -915,7 +927,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -934,7 +946,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -953,7 +965,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -972,7 +984,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -991,7 +1003,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1010,7 +1022,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1029,7 +1041,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1048,7 +1060,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1067,7 +1079,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1086,7 +1098,7 @@
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1105,7 +1117,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1124,7 +1136,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1143,7 +1155,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1162,7 +1174,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1181,7 +1193,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1200,7 +1212,7 @@
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1219,7 +1231,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1238,7 +1250,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1257,7 +1269,7 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1276,7 +1288,7 @@
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1295,7 +1307,7 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1314,7 +1326,7 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1333,7 +1345,7 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1352,7 +1364,7 @@
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1371,7 +1383,7 @@
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1390,7 +1402,7 @@
       </c>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1428,7 +1440,7 @@
       </c>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1447,7 +1459,7 @@
       </c>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>19</v>
@@ -1466,161 +1478,273 @@
       </c>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="str">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="str">
+        <v>20</v>
+      </c>
+      <c r="B43" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="str">
+        <v>20</v>
+      </c>
+      <c r="B44" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="str">
+        <v>20</v>
+      </c>
+      <c r="B45" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="str">
+        <v>20</v>
+      </c>
+      <c r="B46" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C47" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="str">
+      <c r="F47" s="10">
+        <v>0.59027777777777801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B48" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C48" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="str">
+      <c r="F48" s="10">
+        <v>0.60069444444444497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B49" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="str">
+      <c r="F49" s="10">
+        <v>0.61111111111111105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B50" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="str">
+      <c r="F50" s="10">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B51" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="13" t="str">
+      <c r="F51" s="10">
+        <v>0.63194444444444497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B52" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="13" t="str">
+      <c r="F52" s="10">
+        <v>0.64236111111111205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B53" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="13" t="str">
+      <c r="F53" s="10">
+        <v>0.65277777777777801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B54" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C54" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="13" t="str">
+      <c r="F54" s="10">
+        <v>0.66319444444444497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B55" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="13" t="str">
+      <c r="F55" s="10">
+        <v>0.67361111111111205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B56" s="9">
+        <v>45429</v>
+      </c>
+      <c r="C56" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F56" s="10">
+        <v>0.68402777777777901</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1631,7 +1755,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1642,7 +1766,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1653,7 +1777,7 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1664,7 +1788,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1675,7 +1799,7 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1686,7 +1810,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1697,7 +1821,7 @@
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1708,7 +1832,7 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1719,7 +1843,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1730,7 +1854,7 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1741,7 +1865,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1752,7 +1876,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1763,7 +1887,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1774,7 +1898,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1785,7 +1909,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1796,7 +1920,7 @@
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1807,7 +1931,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1818,7 +1942,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1829,7 +1953,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1840,7 +1964,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1851,7 +1975,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1862,7 +1986,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1873,7 +1997,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1884,7 +2008,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1895,7 +2019,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1906,7 +2030,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1917,7 +2041,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1928,7 +2052,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1939,7 +2063,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1950,7 +2074,7 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1961,7 +2085,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1972,7 +2096,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1983,7 +2107,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1994,7 +2118,7 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2005,7 +2129,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2016,7 +2140,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2027,7 +2151,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2038,7 +2162,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2049,7 +2173,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2060,7 +2184,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2071,7 +2195,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2082,7 +2206,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2093,7 +2217,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2104,7 +2228,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2115,7 +2239,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2126,7 +2250,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2137,7 +2261,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2148,7 +2272,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2159,7 +2283,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2170,7 +2294,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2181,7 +2305,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2192,7 +2316,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2203,7 +2327,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2214,7 +2338,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2225,7 +2349,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2236,7 +2360,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2247,7 +2371,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2258,7 +2382,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2269,7 +2393,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2280,7 +2404,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2291,7 +2415,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2302,7 +2426,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2313,7 +2437,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2324,7 +2448,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2335,7 +2459,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2346,7 +2470,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2357,7 +2481,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2368,7 +2492,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2379,7 +2503,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2390,7 +2514,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2401,7 +2525,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2412,7 +2536,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2423,7 +2547,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2434,7 +2558,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2445,7 +2569,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2456,7 +2580,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2467,7 +2591,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2478,7 +2602,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2489,7 +2613,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2500,7 +2624,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2511,7 +2635,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2522,7 +2646,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2533,7 +2657,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2544,7 +2668,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2555,7 +2679,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2566,7 +2690,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2577,7 +2701,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2588,7 +2712,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2599,7 +2723,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2610,7 +2734,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2621,7 +2745,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2632,7 +2756,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2643,7 +2767,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2654,7 +2778,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2665,7 +2789,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2676,7 +2800,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2687,7 +2811,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2698,7 +2822,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2709,7 +2833,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2720,7 +2844,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2731,7 +2855,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2742,7 +2866,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2753,7 +2877,7 @@
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2764,7 +2888,7 @@
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2775,7 +2899,7 @@
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2786,7 +2910,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2797,7 +2921,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2808,7 +2932,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2819,7 +2943,7 @@
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2830,7 +2954,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2841,7 +2965,7 @@
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2852,7 +2976,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2863,7 +2987,7 @@
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2874,7 +2998,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2885,7 +3009,7 @@
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2896,7 +3020,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2907,7 +3031,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2918,7 +3042,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2929,7 +3053,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2940,7 +3064,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2951,7 +3075,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2962,7 +3086,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2973,7 +3097,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2984,7 +3108,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2995,7 +3119,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3006,7 +3130,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3017,7 +3141,7 @@
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3028,7 +3152,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3039,7 +3163,7 @@
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3050,7 +3174,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3061,7 +3185,7 @@
       <c r="E187" s="11"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3072,7 +3196,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3083,7 +3207,7 @@
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3094,7 +3218,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3105,7 +3229,7 @@
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3116,7 +3240,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3127,7 +3251,7 @@
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3138,7 +3262,7 @@
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3149,7 +3273,7 @@
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3160,7 +3284,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3171,7 +3295,7 @@
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3182,7 +3306,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3193,7 +3317,7 @@
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3204,7 +3328,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3215,7 +3339,7 @@
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3226,7 +3350,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3237,7 +3361,7 @@
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3248,7 +3372,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3259,7 +3383,7 @@
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3270,7 +3394,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3281,7 +3405,7 @@
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3292,7 +3416,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3303,7 +3427,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3314,7 +3438,7 @@
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3325,7 +3449,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3336,7 +3460,7 @@
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3347,7 +3471,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3358,7 +3482,7 @@
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3369,7 +3493,7 @@
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3380,7 +3504,7 @@
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3391,7 +3515,7 @@
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3402,7 +3526,7 @@
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3413,7 +3537,7 @@
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3424,7 +3548,7 @@
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3435,7 +3559,7 @@
       <c r="E221" s="11"/>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3446,7 +3570,7 @@
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3457,7 +3581,7 @@
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3468,7 +3592,7 @@
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3479,7 +3603,7 @@
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3490,7 +3614,7 @@
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3501,7 +3625,7 @@
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3512,7 +3636,7 @@
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3523,7 +3647,7 @@
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3534,7 +3658,7 @@
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3545,7 +3669,7 @@
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3556,7 +3680,7 @@
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3567,7 +3691,7 @@
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3578,7 +3702,7 @@
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3589,7 +3713,7 @@
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3600,7 +3724,7 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3611,7 +3735,7 @@
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3622,7 +3746,7 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3633,7 +3757,7 @@
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3644,7 +3768,7 @@
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3655,7 +3779,7 @@
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3666,7 +3790,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3677,7 +3801,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3688,7 +3812,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3699,7 +3823,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3710,7 +3834,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3721,7 +3845,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3732,7 +3856,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3743,7 +3867,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3754,7 +3878,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3765,7 +3889,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3776,7 +3900,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3787,7 +3911,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3798,7 +3922,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3809,7 +3933,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3820,7 +3944,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3831,7 +3955,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3842,7 +3966,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3853,7 +3977,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3864,7 +3988,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3875,7 +3999,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3886,7 +4010,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3897,7 +4021,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3908,7 +4032,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3919,7 +4043,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3930,7 +4054,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3941,7 +4065,7 @@
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3952,7 +4076,7 @@
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3963,7 +4087,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3974,7 +4098,7 @@
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3985,7 +4109,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3996,7 +4120,7 @@
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4007,7 +4131,7 @@
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4018,7 +4142,7 @@
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4029,7 +4153,7 @@
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4040,7 +4164,7 @@
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4051,7 +4175,7 @@
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4062,7 +4186,7 @@
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4073,7 +4197,7 @@
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4084,7 +4208,7 @@
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4095,7 +4219,7 @@
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4106,7 +4230,7 @@
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4117,7 +4241,7 @@
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4128,7 +4252,7 @@
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4139,7 +4263,7 @@
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4150,7 +4274,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4161,7 +4285,7 @@
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4172,7 +4296,7 @@
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4183,7 +4307,7 @@
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4194,7 +4318,7 @@
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4205,7 +4329,7 @@
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4216,7 +4340,7 @@
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4227,7 +4351,7 @@
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4238,7 +4362,7 @@
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4249,7 +4373,7 @@
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4260,7 +4384,7 @@
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4271,7 +4395,7 @@
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4282,7 +4406,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4293,7 +4417,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4304,7 +4428,7 @@
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4315,7 +4439,7 @@
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4326,7 +4450,7 @@
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4337,7 +4461,7 @@
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4348,7 +4472,7 @@
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4359,7 +4483,7 @@
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="13" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4370,7 +4494,7 @@
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4381,7 +4505,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4392,7 +4516,7 @@
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4403,7 +4527,7 @@
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4414,7 +4538,7 @@
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="13" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4425,7 +4549,7 @@
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4436,7 +4560,7 @@
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4447,7 +4571,7 @@
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4458,7 +4582,7 @@
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="13" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4469,7 +4593,7 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4480,7 +4604,7 @@
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4491,7 +4615,7 @@
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4502,7 +4626,7 @@
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4513,7 +4637,7 @@
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4524,7 +4648,7 @@
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4535,7 +4659,7 @@
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4546,7 +4670,7 @@
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4557,7 +4681,7 @@
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4568,7 +4692,7 @@
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4579,7 +4703,7 @@
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4590,7 +4714,7 @@
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4601,7 +4725,7 @@
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4612,7 +4736,7 @@
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="13" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4623,7 +4747,7 @@
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="13" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4634,7 +4758,7 @@
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="13" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4645,7 +4769,7 @@
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="13" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4656,7 +4780,7 @@
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="13" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4667,7 +4791,7 @@
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="13" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4678,7 +4802,7 @@
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="13" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4689,7 +4813,7 @@
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="13" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4700,7 +4824,7 @@
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="13" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4711,7 +4835,7 @@
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4722,7 +4846,7 @@
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="13" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4733,7 +4857,7 @@
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="13" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4744,7 +4868,7 @@
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="13" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4755,7 +4879,7 @@
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="13" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4766,7 +4890,7 @@
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="13" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4777,7 +4901,7 @@
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="13" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4788,7 +4912,7 @@
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="13" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4799,7 +4923,7 @@
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="13" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4810,7 +4934,7 @@
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="13" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4821,7 +4945,7 @@
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="13" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4832,7 +4956,7 @@
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="13" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4843,7 +4967,7 @@
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="13" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4854,7 +4978,7 @@
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="13" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4865,7 +4989,7 @@
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="13" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4876,7 +5000,7 @@
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="13" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4887,7 +5011,7 @@
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="13" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4898,7 +5022,7 @@
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="13" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4909,7 +5033,7 @@
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="13" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4920,7 +5044,7 @@
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="13" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4931,7 +5055,7 @@
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="13" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4942,7 +5066,7 @@
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="13" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4953,7 +5077,7 @@
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="13" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4964,7 +5088,7 @@
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="13" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4975,7 +5099,7 @@
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="13" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4986,7 +5110,7 @@
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="13" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4997,7 +5121,7 @@
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="13" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5008,7 +5132,7 @@
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="13" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5019,7 +5143,7 @@
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="13" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5030,7 +5154,7 @@
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="13" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5041,7 +5165,7 @@
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="13" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5052,7 +5176,7 @@
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="13" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5063,7 +5187,7 @@
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="13" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5074,7 +5198,7 @@
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="13" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5085,7 +5209,7 @@
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="13" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5096,7 +5220,7 @@
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5107,7 +5231,7 @@
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="13" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5118,7 +5242,7 @@
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="13" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5129,7 +5253,7 @@
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5140,7 +5264,7 @@
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="13" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5151,7 +5275,7 @@
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="13" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5162,7 +5286,7 @@
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="13" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5173,7 +5297,7 @@
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="13" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5184,7 +5308,7 @@
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="13" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5195,7 +5319,7 @@
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="13" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5206,7 +5330,7 @@
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="13" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5217,7 +5341,7 @@
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="13" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5228,7 +5352,7 @@
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="13" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5239,7 +5363,7 @@
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="13" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5250,7 +5374,7 @@
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="13" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5261,7 +5385,7 @@
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="13" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5272,7 +5396,7 @@
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="13" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5283,7 +5407,7 @@
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="13" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5294,7 +5418,7 @@
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="13" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5305,7 +5429,7 @@
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="13" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5316,7 +5440,7 @@
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5327,7 +5451,7 @@
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="13" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5338,7 +5462,7 @@
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="13" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5349,7 +5473,7 @@
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="13" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5360,7 +5484,7 @@
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="13" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5371,7 +5495,7 @@
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="13" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5382,7 +5506,7 @@
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="13" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5393,7 +5517,7 @@
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5404,7 +5528,7 @@
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="13" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5415,7 +5539,7 @@
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="13" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5426,7 +5550,7 @@
       <c r="E402" s="11"/>
       <c r="F402" s="11"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="13" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5437,7 +5561,7 @@
       <c r="E403" s="11"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="13" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5448,7 +5572,7 @@
       <c r="E404" s="11"/>
       <c r="F404" s="11"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="13" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5459,7 +5583,7 @@
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="13" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5470,7 +5594,7 @@
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="13" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5481,7 +5605,7 @@
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="13" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5492,7 +5616,7 @@
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="13" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5503,7 +5627,7 @@
       <c r="E409" s="11"/>
       <c r="F409" s="11"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="13" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5514,7 +5638,7 @@
       <c r="E410" s="11"/>
       <c r="F410" s="11"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="13" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5525,7 +5649,7 @@
       <c r="E411" s="11"/>
       <c r="F411" s="11"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="13" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5536,7 +5660,7 @@
       <c r="E412" s="11"/>
       <c r="F412" s="11"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="13" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5547,7 +5671,7 @@
       <c r="E413" s="11"/>
       <c r="F413" s="11"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="13" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5558,7 +5682,7 @@
       <c r="E414" s="11"/>
       <c r="F414" s="11"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="13" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5569,7 +5693,7 @@
       <c r="E415" s="11"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="13" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5580,7 +5704,7 @@
       <c r="E416" s="11"/>
       <c r="F416" s="11"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5591,7 +5715,7 @@
       <c r="E417" s="11"/>
       <c r="F417" s="11"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="13" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5602,7 +5726,7 @@
       <c r="E418" s="11"/>
       <c r="F418" s="11"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="13" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5613,7 +5737,7 @@
       <c r="E419" s="11"/>
       <c r="F419" s="11"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="13" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5624,7 +5748,7 @@
       <c r="E420" s="11"/>
       <c r="F420" s="11"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="13" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5635,7 +5759,7 @@
       <c r="E421" s="11"/>
       <c r="F421" s="11"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="13" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5646,7 +5770,7 @@
       <c r="E422" s="11"/>
       <c r="F422" s="11"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="13" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5657,7 +5781,7 @@
       <c r="E423" s="11"/>
       <c r="F423" s="11"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="13" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5668,7 +5792,7 @@
       <c r="E424" s="11"/>
       <c r="F424" s="11"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="13" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5679,7 +5803,7 @@
       <c r="E425" s="11"/>
       <c r="F425" s="11"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="13" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5690,7 +5814,7 @@
       <c r="E426" s="11"/>
       <c r="F426" s="11"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5701,7 +5825,7 @@
       <c r="E427" s="11"/>
       <c r="F427" s="11"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="13" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5712,7 +5836,7 @@
       <c r="E428" s="11"/>
       <c r="F428" s="11"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="13" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5723,7 +5847,7 @@
       <c r="E429" s="11"/>
       <c r="F429" s="11"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="13" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5734,7 +5858,7 @@
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="13" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5745,7 +5869,7 @@
       <c r="E431" s="11"/>
       <c r="F431" s="11"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="13" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5756,7 +5880,7 @@
       <c r="E432" s="11"/>
       <c r="F432" s="11"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="13" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5767,7 +5891,7 @@
       <c r="E433" s="11"/>
       <c r="F433" s="11"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="13" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5778,7 +5902,7 @@
       <c r="E434" s="11"/>
       <c r="F434" s="11"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="13" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5789,7 +5913,7 @@
       <c r="E435" s="11"/>
       <c r="F435" s="11"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="13" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5800,7 +5924,7 @@
       <c r="E436" s="11"/>
       <c r="F436" s="11"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="13" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5811,7 +5935,7 @@
       <c r="E437" s="11"/>
       <c r="F437" s="11"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="13" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5822,7 +5946,7 @@
       <c r="E438" s="11"/>
       <c r="F438" s="11"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="13" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5833,7 +5957,7 @@
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="13" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5844,7 +5968,7 @@
       <c r="E440" s="11"/>
       <c r="F440" s="11"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="13" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5855,7 +5979,7 @@
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="13" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5866,7 +5990,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="13" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5877,7 +6001,7 @@
       <c r="E443" s="11"/>
       <c r="F443" s="11"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="13" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5888,7 +6012,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="13" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5899,7 +6023,7 @@
       <c r="E445" s="11"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="13" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5910,7 +6034,7 @@
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="13" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5921,7 +6045,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="13" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5932,7 +6056,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="11"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="13" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5943,7 +6067,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="11"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="13" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5954,7 +6078,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="11"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="13" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5965,7 +6089,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="13" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5976,7 +6100,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="13" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5987,7 +6111,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="11"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="13" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5998,7 +6122,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="11"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="13" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6009,7 +6133,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="11"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="13" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6020,7 +6144,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="11"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="13" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6031,7 +6155,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="11"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="13" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6042,7 +6166,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="11"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="13" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6053,7 +6177,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="11"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="13" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6064,7 +6188,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="11"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="13" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6075,7 +6199,7 @@
       <c r="E461" s="11"/>
       <c r="F461" s="11"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="13" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6086,7 +6210,7 @@
       <c r="E462" s="11"/>
       <c r="F462" s="11"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="13" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6097,7 +6221,7 @@
       <c r="E463" s="11"/>
       <c r="F463" s="11"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="13" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6108,7 +6232,7 @@
       <c r="E464" s="11"/>
       <c r="F464" s="11"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="13" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6119,7 +6243,7 @@
       <c r="E465" s="11"/>
       <c r="F465" s="11"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="13" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6130,7 +6254,7 @@
       <c r="E466" s="11"/>
       <c r="F466" s="11"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="13" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6141,7 +6265,7 @@
       <c r="E467" s="11"/>
       <c r="F467" s="11"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="13" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6152,7 +6276,7 @@
       <c r="E468" s="11"/>
       <c r="F468" s="11"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="13" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6163,7 +6287,7 @@
       <c r="E469" s="11"/>
       <c r="F469" s="11"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="13" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6174,7 +6298,7 @@
       <c r="E470" s="11"/>
       <c r="F470" s="11"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="13" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6185,7 +6309,7 @@
       <c r="E471" s="11"/>
       <c r="F471" s="11"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="13" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6196,7 +6320,7 @@
       <c r="E472" s="11"/>
       <c r="F472" s="11"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="13" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6207,7 +6331,7 @@
       <c r="E473" s="11"/>
       <c r="F473" s="11"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="13" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6218,7 +6342,7 @@
       <c r="E474" s="11"/>
       <c r="F474" s="11"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="13" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6229,7 +6353,7 @@
       <c r="E475" s="11"/>
       <c r="F475" s="11"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="13" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6240,7 +6364,7 @@
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="13" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6251,7 +6375,7 @@
       <c r="E477" s="11"/>
       <c r="F477" s="11"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="13" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6262,7 +6386,7 @@
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="13" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6273,7 +6397,7 @@
       <c r="E479" s="11"/>
       <c r="F479" s="11"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="13" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6284,7 +6408,7 @@
       <c r="E480" s="11"/>
       <c r="F480" s="11"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="13" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6295,7 +6419,7 @@
       <c r="E481" s="11"/>
       <c r="F481" s="11"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="13" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6306,7 +6430,7 @@
       <c r="E482" s="11"/>
       <c r="F482" s="11"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="13" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6317,7 +6441,7 @@
       <c r="E483" s="11"/>
       <c r="F483" s="11"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="13" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6328,7 +6452,7 @@
       <c r="E484" s="11"/>
       <c r="F484" s="11"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="13" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6339,7 +6463,7 @@
       <c r="E485" s="11"/>
       <c r="F485" s="11"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="13" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6350,7 +6474,7 @@
       <c r="E486" s="11"/>
       <c r="F486" s="11"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="13" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6361,7 +6485,7 @@
       <c r="E487" s="11"/>
       <c r="F487" s="11"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="13" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6372,7 +6496,7 @@
       <c r="E488" s="11"/>
       <c r="F488" s="11"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="13" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6383,7 +6507,7 @@
       <c r="E489" s="11"/>
       <c r="F489" s="11"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="13" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6394,7 +6518,7 @@
       <c r="E490" s="11"/>
       <c r="F490" s="11"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="13" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6405,7 +6529,7 @@
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="13" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6416,7 +6540,7 @@
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="13" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6427,7 +6551,7 @@
       <c r="E493" s="11"/>
       <c r="F493" s="11"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="13" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6438,7 +6562,7 @@
       <c r="E494" s="11"/>
       <c r="F494" s="11"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="13" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6449,7 +6573,7 @@
       <c r="E495" s="11"/>
       <c r="F495" s="11"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="13" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6460,7 +6584,7 @@
       <c r="E496" s="11"/>
       <c r="F496" s="11"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="13" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6471,7 +6595,7 @@
       <c r="E497" s="11"/>
       <c r="F497" s="11"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="13" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6482,7 +6606,7 @@
       <c r="E498" s="11"/>
       <c r="F498" s="11"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="13" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6493,7 +6617,7 @@
       <c r="E499" s="11"/>
       <c r="F499" s="11"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="13" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6504,7 +6628,7 @@
       <c r="E500" s="11"/>
       <c r="F500" s="11"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="13" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6515,7 +6639,7 @@
       <c r="E501" s="11"/>
       <c r="F501" s="11"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="13" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6526,7 +6650,7 @@
       <c r="E502" s="11"/>
       <c r="F502" s="11"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="13" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6537,7 +6661,7 @@
       <c r="E503" s="11"/>
       <c r="F503" s="11"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="13" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6548,7 +6672,7 @@
       <c r="E504" s="11"/>
       <c r="F504" s="11"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="13" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6559,7 +6683,7 @@
       <c r="E505" s="11"/>
       <c r="F505" s="11"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="13" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6570,7 +6694,7 @@
       <c r="E506" s="11"/>
       <c r="F506" s="11"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="13" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6581,7 +6705,7 @@
       <c r="E507" s="11"/>
       <c r="F507" s="11"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="13" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6592,7 +6716,7 @@
       <c r="E508" s="11"/>
       <c r="F508" s="11"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="13" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6603,7 +6727,7 @@
       <c r="E509" s="11"/>
       <c r="F509" s="11"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="13" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6614,7 +6738,7 @@
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="13" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6625,7 +6749,7 @@
       <c r="E511" s="11"/>
       <c r="F511" s="11"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="13" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6636,7 +6760,7 @@
       <c r="E512" s="11"/>
       <c r="F512" s="11"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="13" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6647,7 +6771,7 @@
       <c r="E513" s="11"/>
       <c r="F513" s="11"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="13" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6658,7 +6782,7 @@
       <c r="E514" s="11"/>
       <c r="F514" s="11"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="13" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6669,7 +6793,7 @@
       <c r="E515" s="11"/>
       <c r="F515" s="11"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="13" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6680,7 +6804,7 @@
       <c r="E516" s="11"/>
       <c r="F516" s="11"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="13" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6691,7 +6815,7 @@
       <c r="E517" s="11"/>
       <c r="F517" s="11"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="13" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6702,7 +6826,7 @@
       <c r="E518" s="11"/>
       <c r="F518" s="11"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="13" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6713,7 +6837,7 @@
       <c r="E519" s="11"/>
       <c r="F519" s="11"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="13" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6724,7 +6848,7 @@
       <c r="E520" s="11"/>
       <c r="F520" s="11"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="13" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6735,7 +6859,7 @@
       <c r="E521" s="11"/>
       <c r="F521" s="11"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="13" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6746,7 +6870,7 @@
       <c r="E522" s="11"/>
       <c r="F522" s="11"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="13" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6757,7 +6881,7 @@
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="13" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6768,7 +6892,7 @@
       <c r="E524" s="11"/>
       <c r="F524" s="11"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="13" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6779,7 +6903,7 @@
       <c r="E525" s="11"/>
       <c r="F525" s="11"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="13" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6790,7 +6914,7 @@
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="13" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6801,7 +6925,7 @@
       <c r="E527" s="11"/>
       <c r="F527" s="11"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="13" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6812,7 +6936,7 @@
       <c r="E528" s="11"/>
       <c r="F528" s="11"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="13" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6823,7 +6947,7 @@
       <c r="E529" s="11"/>
       <c r="F529" s="11"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="13" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6834,7 +6958,7 @@
       <c r="E530" s="11"/>
       <c r="F530" s="11"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="13" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6882,26 +7006,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7124,26 +7228,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7160,4 +7265,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8EB508-BDE4-4EC5-9E2B-B353B02C490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4D5834-B25E-499A-AAEA-6AF57ECB789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -217,6 +217,18 @@
   <si>
     <t>Je vérifie si l'utilisateur existe dans la base de donnée</t>
   </si>
+  <si>
+    <t>J'essaie de récupérer uniquement la valeur du sel dans la base de donnée</t>
+  </si>
+  <si>
+    <t>Je commence à faire la route pour créer un utilisateur</t>
+  </si>
+  <si>
+    <t>Je continue de créer la route signUp</t>
+  </si>
+  <si>
+    <t>Je finis de créer la route signup avec le sel et le hash puis je crée l'utilisateur dans ma base de donnée</t>
+  </si>
 </sst>
 </file>
 
@@ -361,50 +373,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -453,6 +421,50 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -467,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -475,14 +487,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -678,7 +690,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1568,10 +1580,10 @@
       <c r="D47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10">
-        <v>0.59027777777777801</v>
-      </c>
+      <c r="E47" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
@@ -1587,10 +1599,10 @@
       <c r="D48" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10">
-        <v>0.60069444444444497</v>
-      </c>
+      <c r="E48" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
@@ -1606,12 +1618,12 @@
       <c r="D49" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1625,10 +1637,10 @@
       <c r="D50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="10">
-        <v>0.62152777777777801</v>
-      </c>
+      <c r="E50" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
@@ -1646,7 +1658,7 @@
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="10">
-        <v>0.63194444444444497</v>
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,7 +1677,7 @@
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="10">
-        <v>0.64236111111111205</v>
+        <v>0.64583333333333304</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,7 +1696,7 @@
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="10">
-        <v>0.65277777777777801</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1703,7 +1715,7 @@
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="10">
-        <v>0.66319444444444497</v>
+        <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1722,7 +1734,7 @@
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="10">
-        <v>0.67361111111111205</v>
+        <v>0.67708333333333304</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,7 +1753,7 @@
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="10">
-        <v>0.68402777777777901</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6976,19 +6988,19 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D6:D13 D15:D531">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7006,6 +7018,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7228,27 +7260,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7265,23 +7296,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4D5834-B25E-499A-AAEA-6AF57ECB789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9F197-6FD4-4747-A484-B8E1A5AD6A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Je finis de créer la route signup avec le sel et le hash puis je crée l'utilisateur dans ma base de donnée</t>
+  </si>
+  <si>
+    <t>Je continue de créer la route login maintenant que je peux créer des utilisateurs</t>
+  </si>
+  <si>
+    <t>J'ai un problème avec mon sel, lorsque je le récupère dans la base de donnée il n'est pas au bon format donc mon hash est mauvais.</t>
   </si>
 </sst>
 </file>
@@ -689,8 +695,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="5" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1656,12 +1662,12 @@
       <c r="D51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10">
-        <v>0.63541666666666663</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1675,10 +1681,10 @@
       <c r="D52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="10">
-        <v>0.64583333333333304</v>
-      </c>
+      <c r="E52" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
@@ -7018,26 +7024,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7260,26 +7246,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7296,4 +7283,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9F197-6FD4-4747-A484-B8E1A5AD6A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5224B-6D9A-41E6-9401-DCF7BCB2A583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>J'ai un problème avec mon sel, lorsque je le récupère dans la base de donnée il n'est pas au bon format donc mon hash est mauvais.</t>
+  </si>
+  <si>
+    <t>J'ai réussi à récupérer le sel sous la forme voulu</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1703,9 @@
       <c r="D53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F53" s="10">
         <v>0.65625</v>
       </c>
@@ -7024,6 +7029,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7246,27 +7271,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7283,23 +7307,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5224B-6D9A-41E6-9401-DCF7BCB2A583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2C28E-68B2-49F8-B075-0BA55642B197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>J'ai réussi à récupérer le sel sous la forme voulu</t>
+  </si>
+  <si>
+    <t>J'essaie de créer une condition avec ma fonction qui vérifie si l'utilisateur s'est bien connecté</t>
+  </si>
+  <si>
+    <t>Je continue d'essayer de'utiliser ma fonction dans une condition</t>
   </si>
 </sst>
 </file>
@@ -699,7 +705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -763,7 +769,7 @@
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.53125000000000078</v>
+        <v>0.52083333333333404</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1706,9 +1712,7 @@
       <c r="E53" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="10">
-        <v>0.65625</v>
-      </c>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
@@ -1724,10 +1728,10 @@
       <c r="D54" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="10">
-        <v>0.66666666666666696</v>
-      </c>
+      <c r="E54" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
@@ -1743,35 +1747,19 @@
       <c r="D55" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="10">
-        <v>0.67708333333333304</v>
-      </c>
+      <c r="E55" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v>20</v>
-      </c>
-      <c r="B56" s="9">
-        <v>45429</v>
-      </c>
-      <c r="C56" s="10">
-        <v>1.0416666666666701E-2</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="10">
-        <v>0.6875</v>
-      </c>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="str">
-        <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
@@ -7029,26 +7017,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7271,26 +7239,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7307,4 +7276,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2C28E-68B2-49F8-B075-0BA55642B197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131EF87B-5DEA-4AE2-B3BA-7641EC49813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -242,7 +242,10 @@
     <t>J'essaie de créer une condition avec ma fonction qui vérifie si l'utilisateur s'est bien connecté</t>
   </si>
   <si>
-    <t>Je continue d'essayer de'utiliser ma fonction dans une condition</t>
+    <t>Je continue d'essayer d'utiliser ma fonction dans une condition</t>
+  </si>
+  <si>
+    <t>Je règle une erreur, j'oublais d'ajouter le mot de passe dans la fonction de hachage.</t>
   </si>
 </sst>
 </file>
@@ -388,6 +391,50 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -436,50 +483,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -494,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -502,14 +505,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -704,26 +707,26 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="5" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="72.125" customWidth="1"/>
+    <col min="6" max="6" width="72.08203125" customWidth="1"/>
     <col min="10" max="10" width="7.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.58203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -733,7 +736,7 @@
       </c>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
@@ -763,13 +766,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.52083333333333404</v>
+        <v>0.53125000000000078</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -779,10 +782,10 @@
       </c>
       <c r="F3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -802,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -821,7 +824,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -840,7 +843,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -859,7 +862,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -878,7 +881,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -897,7 +900,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -916,7 +919,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -935,7 +938,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -954,7 +957,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -973,7 +976,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -992,7 +995,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1011,7 +1014,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1030,7 +1033,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1049,7 +1052,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1068,7 +1071,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1087,7 +1090,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1106,7 +1109,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1125,7 +1128,7 @@
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1144,7 +1147,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1163,7 +1166,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1182,7 +1185,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1201,7 +1204,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1220,7 +1223,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1239,7 +1242,7 @@
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1258,7 +1261,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1277,7 +1280,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1296,7 +1299,7 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1315,7 +1318,7 @@
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1334,7 +1337,7 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1353,7 +1356,7 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1372,7 +1375,7 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1391,7 +1394,7 @@
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1410,7 +1413,7 @@
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1429,7 +1432,7 @@
       </c>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1448,7 +1451,7 @@
       </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1467,7 +1470,7 @@
       </c>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1486,7 +1489,7 @@
       </c>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>19</v>
@@ -1505,7 +1508,7 @@
       </c>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1524,7 +1527,7 @@
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1543,7 +1546,7 @@
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1562,7 +1565,7 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1581,7 +1584,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1600,7 +1603,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1619,7 +1622,7 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1638,7 +1641,7 @@
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1657,7 +1660,7 @@
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1676,7 +1679,7 @@
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1695,7 +1698,7 @@
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1714,7 +1717,7 @@
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1733,7 +1736,7 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1752,21 +1755,37 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="13">
+        <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v>22</v>
+      </c>
+      <c r="B56" s="9">
+        <v>45439</v>
+      </c>
+      <c r="C56" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="str">
+        <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v/>
+      </c>
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1777,7 +1796,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1788,7 +1807,7 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1799,7 +1818,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1810,7 +1829,7 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1821,7 +1840,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1832,7 +1851,7 @@
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1843,7 +1862,7 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1854,7 +1873,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1865,7 +1884,7 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1876,7 +1895,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1887,7 +1906,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1898,7 +1917,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1909,7 +1928,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1920,7 +1939,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1931,7 +1950,7 @@
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1942,7 +1961,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1953,7 +1972,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1964,7 +1983,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1975,7 +1994,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1986,7 +2005,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1997,7 +2016,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2008,7 +2027,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2019,7 +2038,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2030,7 +2049,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="13" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2041,7 +2060,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2052,7 +2071,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2063,7 +2082,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2074,7 +2093,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2085,7 +2104,7 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2096,7 +2115,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2107,7 +2126,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2118,7 +2137,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2129,7 +2148,7 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2140,7 +2159,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2151,7 +2170,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2162,7 +2181,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2173,7 +2192,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2184,7 +2203,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2195,7 +2214,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2206,7 +2225,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2217,7 +2236,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2228,7 +2247,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2239,7 +2258,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="13" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2250,7 +2269,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2261,7 +2280,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2272,7 +2291,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="13" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2283,7 +2302,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2294,7 +2313,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2305,7 +2324,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2316,7 +2335,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2327,7 +2346,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2338,7 +2357,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2349,7 +2368,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2360,7 +2379,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2371,7 +2390,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2382,7 +2401,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="13" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2393,7 +2412,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2404,7 +2423,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="13" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2415,7 +2434,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2426,7 +2445,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="13" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2437,7 +2456,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2448,7 +2467,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2459,7 +2478,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="13" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2470,7 +2489,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="13" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2481,7 +2500,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2492,7 +2511,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2503,7 +2522,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2514,7 +2533,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2525,7 +2544,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2536,7 +2555,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2547,7 +2566,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2558,7 +2577,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2569,7 +2588,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2580,7 +2599,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2591,7 +2610,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2602,7 +2621,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2613,7 +2632,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2624,7 +2643,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2635,7 +2654,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2646,7 +2665,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2657,7 +2676,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2668,7 +2687,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2679,7 +2698,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2690,7 +2709,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2701,7 +2720,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="13" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2712,7 +2731,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="13" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2723,7 +2742,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="13" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2734,7 +2753,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2745,7 +2764,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2756,7 +2775,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="13" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2767,7 +2786,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="13" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2778,7 +2797,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="13" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2789,7 +2808,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="13" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2800,7 +2819,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="13" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2811,7 +2830,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="13" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2822,7 +2841,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2833,7 +2852,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2844,7 +2863,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2855,7 +2874,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2866,7 +2885,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2877,7 +2896,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="13" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2888,7 +2907,7 @@
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2899,7 +2918,7 @@
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2910,7 +2929,7 @@
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2921,7 +2940,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2932,7 +2951,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2943,7 +2962,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="13" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2954,7 +2973,7 @@
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2965,7 +2984,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="13" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2976,7 +2995,7 @@
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="13" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2987,7 +3006,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="13" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2998,7 +3017,7 @@
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="13" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3009,7 +3028,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="13" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3020,7 +3039,7 @@
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3031,7 +3050,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3042,7 +3061,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3053,7 +3072,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3064,7 +3083,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3075,7 +3094,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="13" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3086,7 +3105,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="13" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3097,7 +3116,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3108,7 +3127,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3119,7 +3138,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3130,7 +3149,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3141,7 +3160,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="13" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3152,7 +3171,7 @@
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="13" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3163,7 +3182,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3174,7 +3193,7 @@
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3185,7 +3204,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3196,7 +3215,7 @@
       <c r="E187" s="11"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3207,7 +3226,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="13" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3218,7 +3237,7 @@
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="13" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3229,7 +3248,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="13" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3240,7 +3259,7 @@
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="13" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3251,7 +3270,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="13" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3262,7 +3281,7 @@
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="13" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3273,7 +3292,7 @@
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="13" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3284,7 +3303,7 @@
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="13" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3295,7 +3314,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="13" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3306,7 +3325,7 @@
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="13" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3317,7 +3336,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="13" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3328,7 +3347,7 @@
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="13" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3339,7 +3358,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="13" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3350,7 +3369,7 @@
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="13" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3361,7 +3380,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="13" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3372,7 +3391,7 @@
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="13" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3383,7 +3402,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="13" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3394,7 +3413,7 @@
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="13" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3405,7 +3424,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="13" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3416,7 +3435,7 @@
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="13" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3427,7 +3446,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="13" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3438,7 +3457,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="13" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3449,7 +3468,7 @@
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="13" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3460,7 +3479,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="13" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3471,7 +3490,7 @@
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="13" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3482,7 +3501,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="13" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3493,7 +3512,7 @@
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="13" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3504,7 +3523,7 @@
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="13" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3515,7 +3534,7 @@
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="13" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3526,7 +3545,7 @@
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="13" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3537,7 +3556,7 @@
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="13" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3548,7 +3567,7 @@
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="13" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3559,7 +3578,7 @@
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="13" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3570,7 +3589,7 @@
       <c r="E221" s="11"/>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3581,7 +3600,7 @@
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="13" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3592,7 +3611,7 @@
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="13" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3603,7 +3622,7 @@
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="13" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3614,7 +3633,7 @@
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="13" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3625,7 +3644,7 @@
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="13" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3636,7 +3655,7 @@
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="13" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3647,7 +3666,7 @@
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="13" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3658,7 +3677,7 @@
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="13" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3669,7 +3688,7 @@
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="13" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3680,7 +3699,7 @@
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="13" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3691,7 +3710,7 @@
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="13" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3702,7 +3721,7 @@
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="13" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3713,7 +3732,7 @@
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="13" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3724,7 +3743,7 @@
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="13" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3735,7 +3754,7 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="13" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3746,7 +3765,7 @@
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="13" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3757,7 +3776,7 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="13" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3768,7 +3787,7 @@
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="13" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3779,7 +3798,7 @@
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="13" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3790,7 +3809,7 @@
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="13" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3801,7 +3820,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="13" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3812,7 +3831,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="13" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3823,7 +3842,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="13" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3834,7 +3853,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="13" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3845,7 +3864,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="13" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3856,7 +3875,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="13" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3867,7 +3886,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="13" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3878,7 +3897,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="13" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3889,7 +3908,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="13" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3900,7 +3919,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="13" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3911,7 +3930,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="13" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3922,7 +3941,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="13" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3933,7 +3952,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="13" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3944,7 +3963,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="13" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3955,7 +3974,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="13" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3966,7 +3985,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="13" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3977,7 +3996,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="13" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3988,7 +4007,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="13" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3999,7 +4018,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="13" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4010,7 +4029,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="13" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4021,7 +4040,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="13" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4032,7 +4051,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="13" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4043,7 +4062,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="13" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4054,7 +4073,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="13" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4065,7 +4084,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="13" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4076,7 +4095,7 @@
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="13" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4087,7 +4106,7 @@
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="13" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4098,7 +4117,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="13" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4109,7 +4128,7 @@
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="13" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4120,7 +4139,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="13" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4131,7 +4150,7 @@
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="13" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4142,7 +4161,7 @@
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="13" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4153,7 +4172,7 @@
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="13" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4164,7 +4183,7 @@
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="13" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4175,7 +4194,7 @@
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="13" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4186,7 +4205,7 @@
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="13" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4197,7 +4216,7 @@
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="13" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4208,7 +4227,7 @@
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="13" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4219,7 +4238,7 @@
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="13" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4230,7 +4249,7 @@
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="13" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4241,7 +4260,7 @@
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="13" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4252,7 +4271,7 @@
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="13" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4263,7 +4282,7 @@
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="13" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4274,7 +4293,7 @@
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="13" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4285,7 +4304,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="13" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4296,7 +4315,7 @@
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="13" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4307,7 +4326,7 @@
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="13" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4318,7 +4337,7 @@
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="13" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4329,7 +4348,7 @@
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="13" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4340,7 +4359,7 @@
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="13" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4351,7 +4370,7 @@
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="13" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4362,7 +4381,7 @@
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="13" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4373,7 +4392,7 @@
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="13" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4384,7 +4403,7 @@
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="13" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4395,7 +4414,7 @@
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="13" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4406,7 +4425,7 @@
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="13" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4417,7 +4436,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="13" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4428,7 +4447,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="13" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4439,7 +4458,7 @@
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="13" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4450,7 +4469,7 @@
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="13" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4461,7 +4480,7 @@
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="13" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4472,7 +4491,7 @@
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="13" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4483,7 +4502,7 @@
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="13" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4494,7 +4513,7 @@
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="13" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4505,7 +4524,7 @@
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="13" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4516,7 +4535,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="13" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4527,7 +4546,7 @@
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="13" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4538,7 +4557,7 @@
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="13" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4549,7 +4568,7 @@
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="13" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4560,7 +4579,7 @@
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="13" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4571,7 +4590,7 @@
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="13" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4582,7 +4601,7 @@
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="13" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4593,7 +4612,7 @@
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="13" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4604,7 +4623,7 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="13" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4615,7 +4634,7 @@
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="13" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4626,7 +4645,7 @@
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="13" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4637,7 +4656,7 @@
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="13" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4648,7 +4667,7 @@
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="13" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4659,7 +4678,7 @@
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="13" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4670,7 +4689,7 @@
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="13" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4681,7 +4700,7 @@
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="13" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4692,7 +4711,7 @@
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="13" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4703,7 +4722,7 @@
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="13" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4714,7 +4733,7 @@
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="13" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4725,7 +4744,7 @@
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="13" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4736,7 +4755,7 @@
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="13" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4747,7 +4766,7 @@
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="13" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4758,7 +4777,7 @@
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="13" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4769,7 +4788,7 @@
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="13" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4780,7 +4799,7 @@
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="13" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4791,7 +4810,7 @@
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="13" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4802,7 +4821,7 @@
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="13" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4813,7 +4832,7 @@
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="13" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4824,7 +4843,7 @@
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="13" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4835,7 +4854,7 @@
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="13" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4846,7 +4865,7 @@
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="13" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4857,7 +4876,7 @@
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="13" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4868,7 +4887,7 @@
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="13" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4879,7 +4898,7 @@
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="13" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4890,7 +4909,7 @@
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="13" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4901,7 +4920,7 @@
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="13" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4912,7 +4931,7 @@
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="13" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4923,7 +4942,7 @@
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="13" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4934,7 +4953,7 @@
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="13" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4945,7 +4964,7 @@
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="13" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4956,7 +4975,7 @@
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="13" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4967,7 +4986,7 @@
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="13" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4978,7 +4997,7 @@
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="13" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4989,7 +5008,7 @@
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="13" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5000,7 +5019,7 @@
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="13" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5011,7 +5030,7 @@
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="13" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5022,7 +5041,7 @@
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="13" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5033,7 +5052,7 @@
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="13" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5044,7 +5063,7 @@
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="13" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5055,7 +5074,7 @@
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="13" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5066,7 +5085,7 @@
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="13" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5077,7 +5096,7 @@
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="13" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5088,7 +5107,7 @@
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="13" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5099,7 +5118,7 @@
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="13" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5110,7 +5129,7 @@
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5121,7 +5140,7 @@
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="13" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5132,7 +5151,7 @@
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="13" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5143,7 +5162,7 @@
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="13" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5154,7 +5173,7 @@
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5165,7 +5184,7 @@
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="13" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5176,7 +5195,7 @@
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="13" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5187,7 +5206,7 @@
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="13" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5198,7 +5217,7 @@
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="13" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5209,7 +5228,7 @@
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="13" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5220,7 +5239,7 @@
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="13" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5231,7 +5250,7 @@
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="13" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5242,7 +5261,7 @@
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="13" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5253,7 +5272,7 @@
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="13" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5264,7 +5283,7 @@
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="13" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5275,7 +5294,7 @@
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="13" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5286,7 +5305,7 @@
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="13" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5297,7 +5316,7 @@
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="13" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5308,7 +5327,7 @@
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="13" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5319,7 +5338,7 @@
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="13" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5330,7 +5349,7 @@
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="13" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5341,7 +5360,7 @@
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="13" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5352,7 +5371,7 @@
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="13" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5363,7 +5382,7 @@
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="13" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5374,7 +5393,7 @@
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="13" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5385,7 +5404,7 @@
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="13" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5396,7 +5415,7 @@
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="13" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5407,7 +5426,7 @@
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="13" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5418,7 +5437,7 @@
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="13" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5429,7 +5448,7 @@
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="13" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5440,7 +5459,7 @@
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="13" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5451,7 +5470,7 @@
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="13" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5462,7 +5481,7 @@
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="13" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5473,7 +5492,7 @@
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="13" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5484,7 +5503,7 @@
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="13" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5495,7 +5514,7 @@
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="13" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5506,7 +5525,7 @@
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="13" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5517,7 +5536,7 @@
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="13" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5528,7 +5547,7 @@
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="13" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5539,7 +5558,7 @@
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="13" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5550,7 +5569,7 @@
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="13" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5561,7 +5580,7 @@
       <c r="E402" s="11"/>
       <c r="F402" s="11"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="13" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5572,7 +5591,7 @@
       <c r="E403" s="11"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="13" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5583,7 +5602,7 @@
       <c r="E404" s="11"/>
       <c r="F404" s="11"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="13" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5594,7 +5613,7 @@
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="13" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5605,7 +5624,7 @@
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="13" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5616,7 +5635,7 @@
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="13" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5627,7 +5646,7 @@
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="13" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5638,7 +5657,7 @@
       <c r="E409" s="11"/>
       <c r="F409" s="11"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="13" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5649,7 +5668,7 @@
       <c r="E410" s="11"/>
       <c r="F410" s="11"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="13" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5660,7 +5679,7 @@
       <c r="E411" s="11"/>
       <c r="F411" s="11"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="13" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5671,7 +5690,7 @@
       <c r="E412" s="11"/>
       <c r="F412" s="11"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="13" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5682,7 +5701,7 @@
       <c r="E413" s="11"/>
       <c r="F413" s="11"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="13" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5693,7 +5712,7 @@
       <c r="E414" s="11"/>
       <c r="F414" s="11"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="13" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5704,7 +5723,7 @@
       <c r="E415" s="11"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="13" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5715,7 +5734,7 @@
       <c r="E416" s="11"/>
       <c r="F416" s="11"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="13" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5726,7 +5745,7 @@
       <c r="E417" s="11"/>
       <c r="F417" s="11"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="13" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5737,7 +5756,7 @@
       <c r="E418" s="11"/>
       <c r="F418" s="11"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="13" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5748,7 +5767,7 @@
       <c r="E419" s="11"/>
       <c r="F419" s="11"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="13" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5759,7 +5778,7 @@
       <c r="E420" s="11"/>
       <c r="F420" s="11"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="13" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5770,7 +5789,7 @@
       <c r="E421" s="11"/>
       <c r="F421" s="11"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="13" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5781,7 +5800,7 @@
       <c r="E422" s="11"/>
       <c r="F422" s="11"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="13" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5792,7 +5811,7 @@
       <c r="E423" s="11"/>
       <c r="F423" s="11"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="13" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5803,7 +5822,7 @@
       <c r="E424" s="11"/>
       <c r="F424" s="11"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="13" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5814,7 +5833,7 @@
       <c r="E425" s="11"/>
       <c r="F425" s="11"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="13" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5825,7 +5844,7 @@
       <c r="E426" s="11"/>
       <c r="F426" s="11"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="13" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5836,7 +5855,7 @@
       <c r="E427" s="11"/>
       <c r="F427" s="11"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="13" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5847,7 +5866,7 @@
       <c r="E428" s="11"/>
       <c r="F428" s="11"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="13" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5858,7 +5877,7 @@
       <c r="E429" s="11"/>
       <c r="F429" s="11"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="13" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5869,7 +5888,7 @@
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="13" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5880,7 +5899,7 @@
       <c r="E431" s="11"/>
       <c r="F431" s="11"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="13" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5891,7 +5910,7 @@
       <c r="E432" s="11"/>
       <c r="F432" s="11"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="13" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5902,7 +5921,7 @@
       <c r="E433" s="11"/>
       <c r="F433" s="11"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="13" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5913,7 +5932,7 @@
       <c r="E434" s="11"/>
       <c r="F434" s="11"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="13" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5924,7 +5943,7 @@
       <c r="E435" s="11"/>
       <c r="F435" s="11"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="13" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5935,7 +5954,7 @@
       <c r="E436" s="11"/>
       <c r="F436" s="11"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="13" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5946,7 +5965,7 @@
       <c r="E437" s="11"/>
       <c r="F437" s="11"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="13" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5957,7 +5976,7 @@
       <c r="E438" s="11"/>
       <c r="F438" s="11"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="13" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5968,7 +5987,7 @@
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="13" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5979,7 +5998,7 @@
       <c r="E440" s="11"/>
       <c r="F440" s="11"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="13" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5990,7 +6009,7 @@
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="13" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6001,7 +6020,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="13" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6012,7 +6031,7 @@
       <c r="E443" s="11"/>
       <c r="F443" s="11"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="13" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6023,7 +6042,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="13" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6034,7 +6053,7 @@
       <c r="E445" s="11"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="13" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6045,7 +6064,7 @@
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="13" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6056,7 +6075,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="13" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6067,7 +6086,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="11"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="13" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6078,7 +6097,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="11"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="13" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6089,7 +6108,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="11"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="13" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6100,7 +6119,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="13" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6111,7 +6130,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="13" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6122,7 +6141,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="11"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="13" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6133,7 +6152,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="11"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="13" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6144,7 +6163,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="11"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="13" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6155,7 +6174,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="11"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="13" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6166,7 +6185,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="11"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="13" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6177,7 +6196,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="11"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="13" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6188,7 +6207,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="11"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="13" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6199,7 +6218,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="11"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="13" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6210,7 +6229,7 @@
       <c r="E461" s="11"/>
       <c r="F461" s="11"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="13" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6221,7 +6240,7 @@
       <c r="E462" s="11"/>
       <c r="F462" s="11"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="13" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6232,7 +6251,7 @@
       <c r="E463" s="11"/>
       <c r="F463" s="11"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="13" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6243,7 +6262,7 @@
       <c r="E464" s="11"/>
       <c r="F464" s="11"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="13" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6254,7 +6273,7 @@
       <c r="E465" s="11"/>
       <c r="F465" s="11"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="13" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6265,7 +6284,7 @@
       <c r="E466" s="11"/>
       <c r="F466" s="11"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="13" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6276,7 +6295,7 @@
       <c r="E467" s="11"/>
       <c r="F467" s="11"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="13" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6287,7 +6306,7 @@
       <c r="E468" s="11"/>
       <c r="F468" s="11"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="13" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6298,7 +6317,7 @@
       <c r="E469" s="11"/>
       <c r="F469" s="11"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="13" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6309,7 +6328,7 @@
       <c r="E470" s="11"/>
       <c r="F470" s="11"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="13" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6320,7 +6339,7 @@
       <c r="E471" s="11"/>
       <c r="F471" s="11"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="13" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6331,7 +6350,7 @@
       <c r="E472" s="11"/>
       <c r="F472" s="11"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="13" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6342,7 +6361,7 @@
       <c r="E473" s="11"/>
       <c r="F473" s="11"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="13" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6353,7 +6372,7 @@
       <c r="E474" s="11"/>
       <c r="F474" s="11"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="13" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6364,7 +6383,7 @@
       <c r="E475" s="11"/>
       <c r="F475" s="11"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="13" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6375,7 +6394,7 @@
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="13" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6386,7 +6405,7 @@
       <c r="E477" s="11"/>
       <c r="F477" s="11"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="13" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6397,7 +6416,7 @@
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="13" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6408,7 +6427,7 @@
       <c r="E479" s="11"/>
       <c r="F479" s="11"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="13" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6419,7 +6438,7 @@
       <c r="E480" s="11"/>
       <c r="F480" s="11"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="13" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6430,7 +6449,7 @@
       <c r="E481" s="11"/>
       <c r="F481" s="11"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="13" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6441,7 +6460,7 @@
       <c r="E482" s="11"/>
       <c r="F482" s="11"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="13" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6452,7 +6471,7 @@
       <c r="E483" s="11"/>
       <c r="F483" s="11"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="13" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6463,7 +6482,7 @@
       <c r="E484" s="11"/>
       <c r="F484" s="11"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="13" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6474,7 +6493,7 @@
       <c r="E485" s="11"/>
       <c r="F485" s="11"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="13" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6485,7 +6504,7 @@
       <c r="E486" s="11"/>
       <c r="F486" s="11"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="13" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6496,7 +6515,7 @@
       <c r="E487" s="11"/>
       <c r="F487" s="11"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="13" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6507,7 +6526,7 @@
       <c r="E488" s="11"/>
       <c r="F488" s="11"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="13" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6518,7 +6537,7 @@
       <c r="E489" s="11"/>
       <c r="F489" s="11"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="13" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6529,7 +6548,7 @@
       <c r="E490" s="11"/>
       <c r="F490" s="11"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="13" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6540,7 +6559,7 @@
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="13" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6551,7 +6570,7 @@
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="13" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6562,7 +6581,7 @@
       <c r="E493" s="11"/>
       <c r="F493" s="11"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="13" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6573,7 +6592,7 @@
       <c r="E494" s="11"/>
       <c r="F494" s="11"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="13" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6584,7 +6603,7 @@
       <c r="E495" s="11"/>
       <c r="F495" s="11"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="13" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6595,7 +6614,7 @@
       <c r="E496" s="11"/>
       <c r="F496" s="11"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="13" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6606,7 +6625,7 @@
       <c r="E497" s="11"/>
       <c r="F497" s="11"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="13" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6617,7 +6636,7 @@
       <c r="E498" s="11"/>
       <c r="F498" s="11"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="13" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6628,7 +6647,7 @@
       <c r="E499" s="11"/>
       <c r="F499" s="11"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="13" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6639,7 +6658,7 @@
       <c r="E500" s="11"/>
       <c r="F500" s="11"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="13" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6650,7 +6669,7 @@
       <c r="E501" s="11"/>
       <c r="F501" s="11"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="13" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6661,7 +6680,7 @@
       <c r="E502" s="11"/>
       <c r="F502" s="11"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="13" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6672,7 +6691,7 @@
       <c r="E503" s="11"/>
       <c r="F503" s="11"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="13" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6683,7 +6702,7 @@
       <c r="E504" s="11"/>
       <c r="F504" s="11"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="13" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6694,7 +6713,7 @@
       <c r="E505" s="11"/>
       <c r="F505" s="11"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="13" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6705,7 +6724,7 @@
       <c r="E506" s="11"/>
       <c r="F506" s="11"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="13" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6716,7 +6735,7 @@
       <c r="E507" s="11"/>
       <c r="F507" s="11"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="13" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6727,7 +6746,7 @@
       <c r="E508" s="11"/>
       <c r="F508" s="11"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="13" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6738,7 +6757,7 @@
       <c r="E509" s="11"/>
       <c r="F509" s="11"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="13" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6749,7 +6768,7 @@
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="13" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6760,7 +6779,7 @@
       <c r="E511" s="11"/>
       <c r="F511" s="11"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="13" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6771,7 +6790,7 @@
       <c r="E512" s="11"/>
       <c r="F512" s="11"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="13" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6782,7 +6801,7 @@
       <c r="E513" s="11"/>
       <c r="F513" s="11"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="13" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6793,7 +6812,7 @@
       <c r="E514" s="11"/>
       <c r="F514" s="11"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="13" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6804,7 +6823,7 @@
       <c r="E515" s="11"/>
       <c r="F515" s="11"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="13" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6815,7 +6834,7 @@
       <c r="E516" s="11"/>
       <c r="F516" s="11"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="13" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6826,7 +6845,7 @@
       <c r="E517" s="11"/>
       <c r="F517" s="11"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="13" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6837,7 +6856,7 @@
       <c r="E518" s="11"/>
       <c r="F518" s="11"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="13" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6848,7 +6867,7 @@
       <c r="E519" s="11"/>
       <c r="F519" s="11"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="13" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6859,7 +6878,7 @@
       <c r="E520" s="11"/>
       <c r="F520" s="11"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="13" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6870,7 +6889,7 @@
       <c r="E521" s="11"/>
       <c r="F521" s="11"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="13" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6881,7 +6900,7 @@
       <c r="E522" s="11"/>
       <c r="F522" s="11"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="13" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6892,7 +6911,7 @@
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="13" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6903,7 +6922,7 @@
       <c r="E524" s="11"/>
       <c r="F524" s="11"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="13" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6914,7 +6933,7 @@
       <c r="E525" s="11"/>
       <c r="F525" s="11"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="13" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6925,7 +6944,7 @@
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="13" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6936,7 +6955,7 @@
       <c r="E527" s="11"/>
       <c r="F527" s="11"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="13" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6947,7 +6966,7 @@
       <c r="E528" s="11"/>
       <c r="F528" s="11"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="13" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6958,7 +6977,7 @@
       <c r="E529" s="11"/>
       <c r="F529" s="11"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="13" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6969,7 +6988,7 @@
       <c r="E530" s="11"/>
       <c r="F530" s="11"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="13" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6987,19 +7006,19 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D6:D13 D15:D531">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7017,6 +7036,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7239,27 +7278,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7276,23 +7314,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131EF87B-5DEA-4AE2-B3BA-7641EC49813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C62D1BA-1885-42BE-99D9-C823CD18EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -245,7 +245,10 @@
     <t>Je continue d'essayer d'utiliser ma fonction dans une condition</t>
   </si>
   <si>
-    <t>Je règle une erreur, j'oublais d'ajouter le mot de passe dans la fonction de hachage.</t>
+    <t>Je règle une erreur, j'oubliais d'ajouter le mot de passe dans la fonction de hachage.</t>
+  </si>
+  <si>
+    <t>Je fixe la méthode de hachage et je protège le code contre les injections</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -772,7 +775,7 @@
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.53125000000000078</v>
+        <v>0.54166666666666752</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1775,14 +1778,22 @@
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="13" t="str">
+      <c r="A57" s="13">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B57" s="9">
+        <v>45439</v>
+      </c>
+      <c r="C57" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -7036,26 +7047,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7278,26 +7269,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7314,4 +7306,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C62D1BA-1885-42BE-99D9-C823CD18EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94557A-2867-47D2-B1A1-F538838AF32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Je fixe la méthode de hachage et je protège le code contre les injections</t>
+  </si>
+  <si>
+    <t>Je règle une erreur dans mes routes login et signup</t>
+  </si>
+  <si>
+    <t>Je crée le token JWT et le stock dans les cookies</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -775,7 +781,7 @@
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.54166666666666752</v>
+        <v>0.562500000000001</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -785,7 +791,7 @@
       </c>
       <c r="F3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -1797,25 +1803,41 @@
       <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="13" t="str">
+      <c r="A58" s="13">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B58" s="9">
+        <v>45441</v>
+      </c>
+      <c r="C58" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="13" t="str">
+      <c r="A59" s="13">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B59" s="9">
+        <v>45441</v>
+      </c>
+      <c r="C59" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -7047,6 +7069,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7269,27 +7311,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7306,23 +7347,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94557A-2867-47D2-B1A1-F538838AF32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F20AE65-E212-48D4-8675-AEF968FE1550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Je crée le token JWT et le stock dans les cookies</t>
+  </si>
+  <si>
+    <t>Je crée la route user pas encore protégé</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -781,7 +784,7 @@
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.562500000000001</v>
+        <v>0.57291666666666763</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -791,7 +794,7 @@
       </c>
       <c r="F3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45441</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -1841,14 +1844,22 @@
       <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="13" t="str">
+      <c r="A60" s="13">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B60" s="9">
+        <v>45442</v>
+      </c>
+      <c r="C60" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -7069,26 +7080,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7311,26 +7302,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7347,4 +7339,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/doc/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\P_APP_183-Secure_WebShop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F20AE65-E212-48D4-8675-AEF968FE1550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A43D9A6-AD80-4C63-9965-7C7747FCEB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>Je crée la route user pas encore protégé</t>
+  </si>
+  <si>
+    <t>Je commence à protéger la route user</t>
+  </si>
+  <si>
+    <t>Je continue de protéger la route user</t>
+  </si>
+  <si>
+    <t>Je protège ma route user</t>
   </si>
 </sst>
 </file>
@@ -403,50 +412,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -495,6 +460,50 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -509,7 +518,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -517,14 +526,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -719,26 +728,26 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="5" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="72.08203125" customWidth="1"/>
+    <col min="6" max="6" width="72.125" customWidth="1"/>
     <col min="10" max="10" width="7.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.08203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.58203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -748,7 +757,7 @@
       </c>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
@@ -778,13 +787,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(C5:C521)</f>
-        <v>0.57291666666666763</v>
+        <v>0.60416666666666774</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -794,10 +803,10 @@
       </c>
       <c r="F3" s="21">
         <f ca="1">TODAY()</f>
-        <v>45442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -817,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -836,7 +845,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -855,7 +864,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -874,7 +883,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -893,7 +902,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -912,7 +921,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -931,7 +940,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>12</v>
@@ -950,7 +959,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -969,7 +978,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -988,7 +997,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1007,7 +1016,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1026,7 +1035,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1045,7 +1054,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1064,7 +1073,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1083,7 +1092,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1102,7 +1111,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1121,7 +1130,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1140,7 +1149,7 @@
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1159,7 +1168,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>16</v>
@@ -1178,7 +1187,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1197,7 +1206,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1216,7 +1225,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1235,7 +1244,7 @@
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1254,7 +1263,7 @@
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1273,7 +1282,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1292,7 +1301,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1311,7 +1320,7 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>17</v>
@@ -1330,7 +1339,7 @@
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1349,7 +1358,7 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1368,7 +1377,7 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1387,7 +1396,7 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1406,7 +1415,7 @@
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1425,7 +1434,7 @@
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1444,7 +1453,7 @@
       </c>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1463,7 +1472,7 @@
       </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1482,7 +1491,7 @@
       </c>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>18</v>
@@ -1501,7 +1510,7 @@
       </c>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>19</v>
@@ -1520,7 +1529,7 @@
       </c>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1539,7 +1548,7 @@
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1558,7 +1567,7 @@
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1577,7 +1586,7 @@
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1596,7 +1605,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1615,7 +1624,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1634,7 +1643,7 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1653,7 +1662,7 @@
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1672,7 +1681,7 @@
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1691,7 +1700,7 @@
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1710,7 +1719,7 @@
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1729,7 +1738,7 @@
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1748,7 +1757,7 @@
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>20</v>
@@ -1767,7 +1776,7 @@
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>22</v>
@@ -1786,7 +1795,7 @@
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>22</v>
@@ -1805,7 +1814,7 @@
       </c>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>22</v>
@@ -1824,7 +1833,7 @@
       </c>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>22</v>
@@ -1843,7 +1852,7 @@
       </c>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>22</v>
@@ -1862,40 +1871,64 @@
       </c>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="13" t="str">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B61" s="9">
+        <v>45443</v>
+      </c>
+      <c r="C61" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="13" t="str">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B62" s="9">
+        <v>45443</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="13" t="str">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B63" s="9">
+        <v>45443</v>
+      </c>
+      <c r="C63" s="10">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1906,7 +1939,7 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1917,7 +1950,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1928,7 +1961,7 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1939,7 +1972,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1950,7 +1983,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1961,7 +1994,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1972,7 +2005,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1983,7 +2016,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1994,7 +2027,7 @@
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2005,7 +2038,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2016,7 +2049,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2027,7 +2060,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2038,7 +2071,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2049,7 +2082,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2060,7 +2093,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2071,7 +2104,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2082,7 +2115,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2093,7 +2126,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2104,7 +2137,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2115,7 +2148,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2126,7 +2159,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2137,7 +2170,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2148,7 +2181,7 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2159,7 +2192,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2170,7 +2203,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2181,7 +2214,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2192,7 +2225,7 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2203,7 +2236,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2214,7 +2247,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2225,7 +2258,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2236,7 +2269,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2247,7 +2280,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2258,7 +2291,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2269,7 +2302,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2280,7 +2313,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2291,7 +2324,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2302,7 +2335,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2313,7 +2346,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2324,7 +2357,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2335,7 +2368,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2346,7 +2379,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2357,7 +2390,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2368,7 +2401,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2379,7 +2412,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2390,7 +2423,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2401,7 +2434,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2412,7 +2445,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2423,7 +2456,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2434,7 +2467,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2445,7 +2478,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2456,7 +2489,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2467,7 +2500,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2478,7 +2511,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2489,7 +2522,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2500,7 +2533,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2511,7 +2544,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2522,7 +2555,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2533,7 +2566,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2544,7 +2577,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2555,7 +2588,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2566,7 +2599,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2577,7 +2610,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2588,7 +2621,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2599,7 +2632,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2610,7 +2643,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2621,7 +2654,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2632,7 +2665,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2643,7 +2676,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2654,7 +2687,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2665,7 +2698,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2676,7 +2709,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2687,7 +2720,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2698,7 +2731,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2709,7 +2742,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2720,7 +2753,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2731,7 +2764,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2742,7 +2775,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2753,7 +2786,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2764,7 +2797,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2775,7 +2808,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2786,7 +2819,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2797,7 +2830,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2808,7 +2841,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2819,7 +2852,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2830,7 +2863,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2841,7 +2874,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2852,7 +2885,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2863,7 +2896,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2874,7 +2907,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2885,7 +2918,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2896,7 +2929,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2907,7 +2940,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2918,7 +2951,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2929,7 +2962,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2940,7 +2973,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2951,7 +2984,7 @@
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2962,7 +2995,7 @@
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2973,7 +3006,7 @@
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2984,7 +3017,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2995,7 +3028,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3006,7 +3039,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3017,7 +3050,7 @@
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3028,7 +3061,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3039,7 +3072,7 @@
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3050,7 +3083,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3061,7 +3094,7 @@
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3072,7 +3105,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3083,7 +3116,7 @@
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3094,7 +3127,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3105,7 +3138,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3116,7 +3149,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3127,7 +3160,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3138,7 +3171,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3149,7 +3182,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3160,7 +3193,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3171,7 +3204,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3182,7 +3215,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3193,7 +3226,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3204,7 +3237,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3215,7 +3248,7 @@
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3226,7 +3259,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3237,7 +3270,7 @@
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3248,7 +3281,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3259,7 +3292,7 @@
       <c r="E187" s="11"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3270,7 +3303,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3281,7 +3314,7 @@
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3292,7 +3325,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3303,7 +3336,7 @@
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3314,7 +3347,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3325,7 +3358,7 @@
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3336,7 +3369,7 @@
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3347,7 +3380,7 @@
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3358,7 +3391,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3369,7 +3402,7 @@
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3380,7 +3413,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3391,7 +3424,7 @@
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3402,7 +3435,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3413,7 +3446,7 @@
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3424,7 +3457,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3435,7 +3468,7 @@
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3446,7 +3479,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3457,7 +3490,7 @@
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3468,7 +3501,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3479,7 +3512,7 @@
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3490,7 +3523,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3501,7 +3534,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3512,7 +3545,7 @@
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3523,7 +3556,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3534,7 +3567,7 @@
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3545,7 +3578,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3556,7 +3589,7 @@
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3567,7 +3600,7 @@
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3578,7 +3611,7 @@
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3589,7 +3622,7 @@
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3600,7 +3633,7 @@
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3611,7 +3644,7 @@
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3622,7 +3655,7 @@
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3633,7 +3666,7 @@
       <c r="E221" s="11"/>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3644,7 +3677,7 @@
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3655,7 +3688,7 @@
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3666,7 +3699,7 @@
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3677,7 +3710,7 @@
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3688,7 +3721,7 @@
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3699,7 +3732,7 @@
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3710,7 +3743,7 @@
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3721,7 +3754,7 @@
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3732,7 +3765,7 @@
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3743,7 +3776,7 @@
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3754,7 +3787,7 @@
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3765,7 +3798,7 @@
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3776,7 +3809,7 @@
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3787,7 +3820,7 @@
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3798,7 +3831,7 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3809,7 +3842,7 @@
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3820,7 +3853,7 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3831,7 +3864,7 @@
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3842,7 +3875,7 @@
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3853,7 +3886,7 @@
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3864,7 +3897,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3875,7 +3908,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3886,7 +3919,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3897,7 +3930,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3908,7 +3941,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3919,7 +3952,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3930,7 +3963,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3941,7 +3974,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3952,7 +3985,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3963,7 +3996,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3974,7 +4007,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3985,7 +4018,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3996,7 +4029,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4007,7 +4040,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4018,7 +4051,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4029,7 +4062,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4040,7 +4073,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4051,7 +4084,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4062,7 +4095,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4073,7 +4106,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4084,7 +4117,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4095,7 +4128,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4106,7 +4139,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4117,7 +4150,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4128,7 +4161,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4139,7 +4172,7 @@
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4150,7 +4183,7 @@
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4161,7 +4194,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4172,7 +4205,7 @@
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4183,7 +4216,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4194,7 +4227,7 @@
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4205,7 +4238,7 @@
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4216,7 +4249,7 @@
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4227,7 +4260,7 @@
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4238,7 +4271,7 @@
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4249,7 +4282,7 @@
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4260,7 +4293,7 @@
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4271,7 +4304,7 @@
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4282,7 +4315,7 @@
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4293,7 +4326,7 @@
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4304,7 +4337,7 @@
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4315,7 +4348,7 @@
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4326,7 +4359,7 @@
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4337,7 +4370,7 @@
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4348,7 +4381,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4359,7 +4392,7 @@
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4370,7 +4403,7 @@
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4381,7 +4414,7 @@
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4392,7 +4425,7 @@
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4403,7 +4436,7 @@
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4414,7 +4447,7 @@
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4425,7 +4458,7 @@
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4436,7 +4469,7 @@
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4447,7 +4480,7 @@
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4458,7 +4491,7 @@
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4469,7 +4502,7 @@
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4480,7 +4513,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4491,7 +4524,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4502,7 +4535,7 @@
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4513,7 +4546,7 @@
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4524,7 +4557,7 @@
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4535,7 +4568,7 @@
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4546,7 +4579,7 @@
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4557,7 +4590,7 @@
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="13" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4568,7 +4601,7 @@
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4579,7 +4612,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4590,7 +4623,7 @@
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4601,7 +4634,7 @@
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4612,7 +4645,7 @@
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="13" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4623,7 +4656,7 @@
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4634,7 +4667,7 @@
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4645,7 +4678,7 @@
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4656,7 +4689,7 @@
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="13" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4667,7 +4700,7 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4678,7 +4711,7 @@
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4689,7 +4722,7 @@
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4700,7 +4733,7 @@
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4711,7 +4744,7 @@
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4722,7 +4755,7 @@
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4733,7 +4766,7 @@
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4744,7 +4777,7 @@
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4755,7 +4788,7 @@
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4766,7 +4799,7 @@
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4777,7 +4810,7 @@
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4788,7 +4821,7 @@
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4799,7 +4832,7 @@
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4810,7 +4843,7 @@
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="13" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4821,7 +4854,7 @@
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="13" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4832,7 +4865,7 @@
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="13" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4843,7 +4876,7 @@
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="13" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4854,7 +4887,7 @@
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="13" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4865,7 +4898,7 @@
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="13" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4876,7 +4909,7 @@
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="13" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4887,7 +4920,7 @@
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="13" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4898,7 +4931,7 @@
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="13" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4909,7 +4942,7 @@
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4920,7 +4953,7 @@
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="13" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4931,7 +4964,7 @@
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="13" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4942,7 +4975,7 @@
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="13" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4953,7 +4986,7 @@
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="13" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4964,7 +4997,7 @@
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="13" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4975,7 +5008,7 @@
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="13" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4986,7 +5019,7 @@
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="13" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4997,7 +5030,7 @@
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="13" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5008,7 +5041,7 @@
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="13" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5019,7 +5052,7 @@
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="13" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5030,7 +5063,7 @@
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="13" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5041,7 +5074,7 @@
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="13" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5052,7 +5085,7 @@
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="13" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5063,7 +5096,7 @@
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="13" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5074,7 +5107,7 @@
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="13" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5085,7 +5118,7 @@
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="13" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5096,7 +5129,7 @@
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="13" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5107,7 +5140,7 @@
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="13" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5118,7 +5151,7 @@
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="13" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5129,7 +5162,7 @@
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="13" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5140,7 +5173,7 @@
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="13" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5151,7 +5184,7 @@
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="13" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5162,7 +5195,7 @@
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="13" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5173,7 +5206,7 @@
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="13" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5184,7 +5217,7 @@
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="13" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5195,7 +5228,7 @@
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="13" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5206,7 +5239,7 @@
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="13" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5217,7 +5250,7 @@
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="13" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5228,7 +5261,7 @@
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="13" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5239,7 +5272,7 @@
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="13" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5250,7 +5283,7 @@
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="13" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5261,7 +5294,7 @@
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="13" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5272,7 +5305,7 @@
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="13" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5283,7 +5316,7 @@
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="13" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5294,7 +5327,7 @@
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5305,7 +5338,7 @@
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="13" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5316,7 +5349,7 @@
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="13" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5327,7 +5360,7 @@
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5338,7 +5371,7 @@
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="13" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5349,7 +5382,7 @@
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="13" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5360,7 +5393,7 @@
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="13" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5371,7 +5404,7 @@
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="13" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5382,7 +5415,7 @@
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="13" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5393,7 +5426,7 @@
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="13" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5404,7 +5437,7 @@
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="13" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5415,7 +5448,7 @@
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="13" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5426,7 +5459,7 @@
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="13" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5437,7 +5470,7 @@
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="13" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5448,7 +5481,7 @@
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="13" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5459,7 +5492,7 @@
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="13" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5470,7 +5503,7 @@
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="13" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5481,7 +5514,7 @@
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="13" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5492,7 +5525,7 @@
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="13" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5503,7 +5536,7 @@
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="13" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5514,7 +5547,7 @@
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5525,7 +5558,7 @@
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="13" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5536,7 +5569,7 @@
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="13" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5547,7 +5580,7 @@
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="13" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5558,7 +5591,7 @@
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="13" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5569,7 +5602,7 @@
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="13" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5580,7 +5613,7 @@
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="13" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5591,7 +5624,7 @@
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5602,7 +5635,7 @@
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="13" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5613,7 +5646,7 @@
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="13" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5624,7 +5657,7 @@
       <c r="E402" s="11"/>
       <c r="F402" s="11"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="13" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5635,7 +5668,7 @@
       <c r="E403" s="11"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="13" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5646,7 +5679,7 @@
       <c r="E404" s="11"/>
       <c r="F404" s="11"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="13" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5657,7 +5690,7 @@
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="13" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5668,7 +5701,7 @@
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="13" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5679,7 +5712,7 @@
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="13" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5690,7 +5723,7 @@
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="13" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5701,7 +5734,7 @@
       <c r="E409" s="11"/>
       <c r="F409" s="11"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="13" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5712,7 +5745,7 @@
       <c r="E410" s="11"/>
       <c r="F410" s="11"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="13" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5723,7 +5756,7 @@
       <c r="E411" s="11"/>
       <c r="F411" s="11"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="13" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5734,7 +5767,7 @@
       <c r="E412" s="11"/>
       <c r="F412" s="11"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="13" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5745,7 +5778,7 @@
       <c r="E413" s="11"/>
       <c r="F413" s="11"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="13" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5756,7 +5789,7 @@
       <c r="E414" s="11"/>
       <c r="F414" s="11"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="13" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5767,7 +5800,7 @@
       <c r="E415" s="11"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="13" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5778,7 +5811,7 @@
       <c r="E416" s="11"/>
       <c r="F416" s="11"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5789,7 +5822,7 @@
       <c r="E417" s="11"/>
       <c r="F417" s="11"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="13" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5800,7 +5833,7 @@
       <c r="E418" s="11"/>
       <c r="F418" s="11"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="13" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5811,7 +5844,7 @@
       <c r="E419" s="11"/>
       <c r="F419" s="11"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="13" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5822,7 +5855,7 @@
       <c r="E420" s="11"/>
       <c r="F420" s="11"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="13" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5833,7 +5866,7 @@
       <c r="E421" s="11"/>
       <c r="F421" s="11"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="13" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5844,7 +5877,7 @@
       <c r="E422" s="11"/>
       <c r="F422" s="11"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="13" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5855,7 +5888,7 @@
       <c r="E423" s="11"/>
       <c r="F423" s="11"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="13" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5866,7 +5899,7 @@
       <c r="E424" s="11"/>
       <c r="F424" s="11"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="13" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5877,7 +5910,7 @@
       <c r="E425" s="11"/>
       <c r="F425" s="11"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="13" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5888,7 +5921,7 @@
       <c r="E426" s="11"/>
       <c r="F426" s="11"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5899,7 +5932,7 @@
       <c r="E427" s="11"/>
       <c r="F427" s="11"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="13" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5910,7 +5943,7 @@
       <c r="E428" s="11"/>
       <c r="F428" s="11"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="13" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5921,7 +5954,7 @@
       <c r="E429" s="11"/>
       <c r="F429" s="11"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="13" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5932,7 +5965,7 @@
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="13" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5943,7 +5976,7 @@
       <c r="E431" s="11"/>
       <c r="F431" s="11"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="13" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5954,7 +5987,7 @@
       <c r="E432" s="11"/>
       <c r="F432" s="11"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="13" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5965,7 +5998,7 @@
       <c r="E433" s="11"/>
       <c r="F433" s="11"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="13" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5976,7 +6009,7 @@
       <c r="E434" s="11"/>
       <c r="F434" s="11"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="13" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5987,7 +6020,7 @@
       <c r="E435" s="11"/>
       <c r="F435" s="11"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="13" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5998,7 +6031,7 @@
       <c r="E436" s="11"/>
       <c r="F436" s="11"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="13" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6009,7 +6042,7 @@
       <c r="E437" s="11"/>
       <c r="F437" s="11"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="13" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6020,7 +6053,7 @@
       <c r="E438" s="11"/>
       <c r="F438" s="11"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="13" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6031,7 +6064,7 @@
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="13" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6042,7 +6075,7 @@
       <c r="E440" s="11"/>
       <c r="F440" s="11"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="13" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6053,7 +6086,7 @@
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="13" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6064,7 +6097,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="13" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6075,7 +6108,7 @@
       <c r="E443" s="11"/>
       <c r="F443" s="11"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="13" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6086,7 +6119,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="13" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6097,7 +6130,7 @@
       <c r="E445" s="11"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="13" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6108,7 +6141,7 @@
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="13" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6119,7 +6152,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="13" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6130,7 +6163,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="11"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="13" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6141,7 +6174,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="11"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="13" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6152,7 +6185,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="11"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="13" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6163,7 +6196,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="13" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6174,7 +6207,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="13" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6185,7 +6218,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="11"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="13" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6196,7 +6229,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="11"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="13" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6207,7 +6240,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="11"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="13" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6218,7 +6251,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="11"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="13" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6229,7 +6262,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="11"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="13" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6240,7 +6273,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="11"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="13" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6251,7 +6284,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="11"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="13" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6262,7 +6295,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="11"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="13" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6273,7 +6306,7 @@
       <c r="E461" s="11"/>
       <c r="F461" s="11"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="13" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6284,7 +6317,7 @@
       <c r="E462" s="11"/>
       <c r="F462" s="11"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="13" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6295,7 +6328,7 @@
       <c r="E463" s="11"/>
       <c r="F463" s="11"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="13" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6306,7 +6339,7 @@
       <c r="E464" s="11"/>
       <c r="F464" s="11"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="13" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6317,7 +6350,7 @@
       <c r="E465" s="11"/>
       <c r="F465" s="11"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="13" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6328,7 +6361,7 @@
       <c r="E466" s="11"/>
       <c r="F466" s="11"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="13" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6339,7 +6372,7 @@
       <c r="E467" s="11"/>
       <c r="F467" s="11"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="13" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6350,7 +6383,7 @@
       <c r="E468" s="11"/>
       <c r="F468" s="11"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="13" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6361,7 +6394,7 @@
       <c r="E469" s="11"/>
       <c r="F469" s="11"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="13" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6372,7 +6405,7 @@
       <c r="E470" s="11"/>
       <c r="F470" s="11"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="13" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6383,7 +6416,7 @@
       <c r="E471" s="11"/>
       <c r="F471" s="11"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="13" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6394,7 +6427,7 @@
       <c r="E472" s="11"/>
       <c r="F472" s="11"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="13" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6405,7 +6438,7 @@
       <c r="E473" s="11"/>
       <c r="F473" s="11"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="13" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6416,7 +6449,7 @@
       <c r="E474" s="11"/>
       <c r="F474" s="11"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="13" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6427,7 +6460,7 @@
       <c r="E475" s="11"/>
       <c r="F475" s="11"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="13" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6438,7 +6471,7 @@
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="13" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6449,7 +6482,7 @@
       <c r="E477" s="11"/>
       <c r="F477" s="11"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="13" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6460,7 +6493,7 @@
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="13" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6471,7 +6504,7 @@
       <c r="E479" s="11"/>
       <c r="F479" s="11"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="13" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6482,7 +6515,7 @@
       <c r="E480" s="11"/>
       <c r="F480" s="11"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="13" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6493,7 +6526,7 @@
       <c r="E481" s="11"/>
       <c r="F481" s="11"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="13" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6504,7 +6537,7 @@
       <c r="E482" s="11"/>
       <c r="F482" s="11"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="13" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6515,7 +6548,7 @@
       <c r="E483" s="11"/>
       <c r="F483" s="11"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="13" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6526,7 +6559,7 @@
       <c r="E484" s="11"/>
       <c r="F484" s="11"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="13" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6537,7 +6570,7 @@
       <c r="E485" s="11"/>
       <c r="F485" s="11"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="13" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6548,7 +6581,7 @@
       <c r="E486" s="11"/>
       <c r="F486" s="11"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="13" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6559,7 +6592,7 @@
       <c r="E487" s="11"/>
       <c r="F487" s="11"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="13" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6570,7 +6603,7 @@
       <c r="E488" s="11"/>
       <c r="F488" s="11"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="13" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6581,7 +6614,7 @@
       <c r="E489" s="11"/>
       <c r="F489" s="11"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="13" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6592,7 +6625,7 @@
       <c r="E490" s="11"/>
       <c r="F490" s="11"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="13" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6603,7 +6636,7 @@
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="13" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6614,7 +6647,7 @@
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="13" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6625,7 +6658,7 @@
       <c r="E493" s="11"/>
       <c r="F493" s="11"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="13" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6636,7 +6669,7 @@
       <c r="E494" s="11"/>
       <c r="F494" s="11"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="13" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6647,7 +6680,7 @@
       <c r="E495" s="11"/>
       <c r="F495" s="11"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="13" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6658,7 +6691,7 @@
       <c r="E496" s="11"/>
       <c r="F496" s="11"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="13" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6669,7 +6702,7 @@
       <c r="E497" s="11"/>
       <c r="F497" s="11"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="13" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6680,7 +6713,7 @@
       <c r="E498" s="11"/>
       <c r="F498" s="11"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="13" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6691,7 +6724,7 @@
       <c r="E499" s="11"/>
       <c r="F499" s="11"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="13" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6702,7 +6735,7 @@
       <c r="E500" s="11"/>
       <c r="F500" s="11"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="13" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6713,7 +6746,7 @@
       <c r="E501" s="11"/>
       <c r="F501" s="11"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="13" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6724,7 +6757,7 @@
       <c r="E502" s="11"/>
       <c r="F502" s="11"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="13" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6735,7 +6768,7 @@
       <c r="E503" s="11"/>
       <c r="F503" s="11"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="13" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6746,7 +6779,7 @@
       <c r="E504" s="11"/>
       <c r="F504" s="11"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="13" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6757,7 +6790,7 @@
       <c r="E505" s="11"/>
       <c r="F505" s="11"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="13" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6768,7 +6801,7 @@
       <c r="E506" s="11"/>
       <c r="F506" s="11"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="13" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6779,7 +6812,7 @@
       <c r="E507" s="11"/>
       <c r="F507" s="11"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="13" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6790,7 +6823,7 @@
       <c r="E508" s="11"/>
       <c r="F508" s="11"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="13" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6801,7 +6834,7 @@
       <c r="E509" s="11"/>
       <c r="F509" s="11"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="13" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6812,7 +6845,7 @@
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="13" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6823,7 +6856,7 @@
       <c r="E511" s="11"/>
       <c r="F511" s="11"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="13" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6834,7 +6867,7 @@
       <c r="E512" s="11"/>
       <c r="F512" s="11"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="13" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6845,7 +6878,7 @@
       <c r="E513" s="11"/>
       <c r="F513" s="11"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="13" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6856,7 +6889,7 @@
       <c r="E514" s="11"/>
       <c r="F514" s="11"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="13" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6867,7 +6900,7 @@
       <c r="E515" s="11"/>
       <c r="F515" s="11"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="13" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6878,7 +6911,7 @@
       <c r="E516" s="11"/>
       <c r="F516" s="11"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="13" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6889,7 +6922,7 @@
       <c r="E517" s="11"/>
       <c r="F517" s="11"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="13" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6900,7 +6933,7 @@
       <c r="E518" s="11"/>
       <c r="F518" s="11"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="13" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6911,7 +6944,7 @@
       <c r="E519" s="11"/>
       <c r="F519" s="11"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="13" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6922,7 +6955,7 @@
       <c r="E520" s="11"/>
       <c r="F520" s="11"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="13" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6933,7 +6966,7 @@
       <c r="E521" s="11"/>
       <c r="F521" s="11"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="13" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6944,7 +6977,7 @@
       <c r="E522" s="11"/>
       <c r="F522" s="11"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="13" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6955,7 +6988,7 @@
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="13" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6966,7 +6999,7 @@
       <c r="E524" s="11"/>
       <c r="F524" s="11"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="13" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6977,7 +7010,7 @@
       <c r="E525" s="11"/>
       <c r="F525" s="11"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="13" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6988,7 +7021,7 @@
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="13" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6999,7 +7032,7 @@
       <c r="E527" s="11"/>
       <c r="F527" s="11"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="13" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -7010,7 +7043,7 @@
       <c r="E528" s="11"/>
       <c r="F528" s="11"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="13" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -7021,7 +7054,7 @@
       <c r="E529" s="11"/>
       <c r="F529" s="11"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="13" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -7032,7 +7065,7 @@
       <c r="E530" s="11"/>
       <c r="F530" s="11"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="13" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -7050,19 +7083,19 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D6:D13 D15:D531">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7080,6 +7113,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7302,27 +7355,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7339,23 +7391,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>